--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지1.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DooDoo\Desktop\05.25 학습\나의 해방일지_학습 (15)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A28F85-5375-45A5-8C93-26ECE3571FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1244B9-958C-4EB6-A586-63F95CA8CF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2914" yWindow="2914" windowWidth="24686" windowHeight="13055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="1543">
   <si>
     <t>Time</t>
   </si>
@@ -4663,6 +4663,10 @@
   </si>
   <si>
     <t>fixed-label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid_label</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5041,7 +5045,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5050,21 +5054,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E774"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A694" workbookViewId="0">
-      <selection activeCell="E702" sqref="E702"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F617" sqref="F617"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="55.125" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5078,10 +5082,10 @@
         <v>1541</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5096,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5111,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5126,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5141,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5156,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5171,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5186,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5201,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5216,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5231,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5246,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -5261,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5276,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -5291,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -5306,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5321,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5336,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -5351,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -5366,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5381,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5396,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -5411,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5426,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -5441,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -5456,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -5471,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -5486,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -5501,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -5516,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -5534,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -5549,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -5564,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -5579,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -5594,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -5609,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -5624,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -5639,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -5654,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -5669,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -5684,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -5699,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -5729,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -5744,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -5759,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -5774,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -5789,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -5804,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -5819,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -5834,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -5849,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -5864,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -5882,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -5897,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -5912,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -5927,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -5942,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -5957,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -5972,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -5987,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -6002,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -6017,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -6032,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -6047,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -6077,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -6092,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -6107,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -6122,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -6137,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -6152,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -6167,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -6185,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -6200,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -6215,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -6230,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -6245,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -6260,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -6275,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -6290,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -6305,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -6320,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -6335,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -6350,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -6365,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -6380,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -6395,7 +6399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -6410,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -6428,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -6443,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -6458,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -6473,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -6491,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -6509,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -6524,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -6539,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -6554,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -6569,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -6584,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -6599,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -6614,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -6629,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -6644,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -6659,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -6674,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -6689,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -6704,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -6719,7 +6723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -6734,7 +6738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>221</v>
       </c>
@@ -6749,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -6764,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -6779,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -6794,7 +6798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>229</v>
       </c>
@@ -6809,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>231</v>
       </c>
@@ -6824,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -6839,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>235</v>
       </c>
@@ -6854,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -6869,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -6884,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>241</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -6917,7 +6921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -6932,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -6947,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -6962,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -6977,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -6992,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>255</v>
       </c>
@@ -7007,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>257</v>
       </c>
@@ -7022,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>259</v>
       </c>
@@ -7037,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -7052,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>263</v>
       </c>
@@ -7067,7 +7071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>265</v>
       </c>
@@ -7085,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -7100,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>269</v>
       </c>
@@ -7115,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>271</v>
       </c>
@@ -7130,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>273</v>
       </c>
@@ -7145,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>275</v>
       </c>
@@ -7160,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>277</v>
       </c>
@@ -7175,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>279</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>281</v>
       </c>
@@ -7205,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -7220,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>285</v>
       </c>
@@ -7235,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>287</v>
       </c>
@@ -7250,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -7265,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>291</v>
       </c>
@@ -7280,7 +7284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>293</v>
       </c>
@@ -7295,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>295</v>
       </c>
@@ -7310,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>297</v>
       </c>
@@ -7325,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>299</v>
       </c>
@@ -7340,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>301</v>
       </c>
@@ -7355,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>303</v>
       </c>
@@ -7370,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>305</v>
       </c>
@@ -7385,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>307</v>
       </c>
@@ -7400,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>309</v>
       </c>
@@ -7415,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>311</v>
       </c>
@@ -7430,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>313</v>
       </c>
@@ -7445,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>315</v>
       </c>
@@ -7460,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>317</v>
       </c>
@@ -7475,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>319</v>
       </c>
@@ -7493,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>321</v>
       </c>
@@ -7508,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>323</v>
       </c>
@@ -7523,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>325</v>
       </c>
@@ -7538,7 +7542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>327</v>
       </c>
@@ -7553,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>329</v>
       </c>
@@ -7568,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>331</v>
       </c>
@@ -7586,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>333</v>
       </c>
@@ -7601,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>335</v>
       </c>
@@ -7616,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>337</v>
       </c>
@@ -7631,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>339</v>
       </c>
@@ -7646,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>341</v>
       </c>
@@ -7661,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>343</v>
       </c>
@@ -7676,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>345</v>
       </c>
@@ -7691,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>347</v>
       </c>
@@ -7706,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>349</v>
       </c>
@@ -7721,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>351</v>
       </c>
@@ -7736,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>353</v>
       </c>
@@ -7751,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>355</v>
       </c>
@@ -7766,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>357</v>
       </c>
@@ -7781,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>359</v>
       </c>
@@ -7796,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>361</v>
       </c>
@@ -7811,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>363</v>
       </c>
@@ -7826,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>365</v>
       </c>
@@ -7841,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>367</v>
       </c>
@@ -7856,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>369</v>
       </c>
@@ -7871,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>371</v>
       </c>
@@ -7886,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>373</v>
       </c>
@@ -7901,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>375</v>
       </c>
@@ -7916,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>377</v>
       </c>
@@ -7931,7 +7935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>379</v>
       </c>
@@ -7946,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>381</v>
       </c>
@@ -7961,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>383</v>
       </c>
@@ -7976,7 +7980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>385</v>
       </c>
@@ -7991,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>387</v>
       </c>
@@ -8006,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>389</v>
       </c>
@@ -8021,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>391</v>
       </c>
@@ -8036,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>393</v>
       </c>
@@ -8051,7 +8055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>395</v>
       </c>
@@ -8066,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>397</v>
       </c>
@@ -8081,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>399</v>
       </c>
@@ -8096,7 +8100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>401</v>
       </c>
@@ -8111,7 +8115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>403</v>
       </c>
@@ -8126,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>405</v>
       </c>
@@ -8141,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -8156,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>409</v>
       </c>
@@ -8171,7 +8175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>411</v>
       </c>
@@ -8186,7 +8190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>413</v>
       </c>
@@ -8201,7 +8205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>415</v>
       </c>
@@ -8216,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>417</v>
       </c>
@@ -8231,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>419</v>
       </c>
@@ -8246,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>421</v>
       </c>
@@ -8261,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>423</v>
       </c>
@@ -8276,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>425</v>
       </c>
@@ -8291,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>427</v>
       </c>
@@ -8306,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>429</v>
       </c>
@@ -8321,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>431</v>
       </c>
@@ -8336,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>433</v>
       </c>
@@ -8351,7 +8355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>435</v>
       </c>
@@ -8366,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -8381,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>439</v>
       </c>
@@ -8396,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>441</v>
       </c>
@@ -8411,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>443</v>
       </c>
@@ -8426,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>445</v>
       </c>
@@ -8441,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>447</v>
       </c>
@@ -8456,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>449</v>
       </c>
@@ -8471,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>451</v>
       </c>
@@ -8486,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>453</v>
       </c>
@@ -8501,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>455</v>
       </c>
@@ -8516,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>457</v>
       </c>
@@ -8534,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>459</v>
       </c>
@@ -8549,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>461</v>
       </c>
@@ -8564,7 +8568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>463</v>
       </c>
@@ -8579,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>465</v>
       </c>
@@ -8594,7 +8598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>467</v>
       </c>
@@ -8609,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>469</v>
       </c>
@@ -8624,7 +8628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>471</v>
       </c>
@@ -8639,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>473</v>
       </c>
@@ -8654,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>475</v>
       </c>
@@ -8669,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>477</v>
       </c>
@@ -8684,7 +8688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>479</v>
       </c>
@@ -8699,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>481</v>
       </c>
@@ -8714,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>483</v>
       </c>
@@ -8729,7 +8733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>485</v>
       </c>
@@ -8744,7 +8748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>487</v>
       </c>
@@ -8759,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>489</v>
       </c>
@@ -8774,7 +8778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>491</v>
       </c>
@@ -8792,7 +8796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>493</v>
       </c>
@@ -8807,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>495</v>
       </c>
@@ -8822,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>497</v>
       </c>
@@ -8837,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>499</v>
       </c>
@@ -8852,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>501</v>
       </c>
@@ -8867,7 +8871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>503</v>
       </c>
@@ -8882,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>505</v>
       </c>
@@ -8900,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>507</v>
       </c>
@@ -8915,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>509</v>
       </c>
@@ -8933,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>511</v>
       </c>
@@ -8948,7 +8952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>513</v>
       </c>
@@ -8963,7 +8967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>515</v>
       </c>
@@ -8978,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>517</v>
       </c>
@@ -8996,7 +9000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>519</v>
       </c>
@@ -9011,7 +9015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>521</v>
       </c>
@@ -9026,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>523</v>
       </c>
@@ -9044,7 +9048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>525</v>
       </c>
@@ -9059,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>527</v>
       </c>
@@ -9074,7 +9078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>529</v>
       </c>
@@ -9089,7 +9093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>531</v>
       </c>
@@ -9104,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>533</v>
       </c>
@@ -9119,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>535</v>
       </c>
@@ -9134,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>537</v>
       </c>
@@ -9149,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>539</v>
       </c>
@@ -9164,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>541</v>
       </c>
@@ -9179,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>543</v>
       </c>
@@ -9194,7 +9198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>545</v>
       </c>
@@ -9209,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>547</v>
       </c>
@@ -9224,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>549</v>
       </c>
@@ -9239,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>551</v>
       </c>
@@ -9254,7 +9258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>553</v>
       </c>
@@ -9272,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>555</v>
       </c>
@@ -9290,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>557</v>
       </c>
@@ -9305,7 +9309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>559</v>
       </c>
@@ -9320,7 +9324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>561</v>
       </c>
@@ -9335,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>563</v>
       </c>
@@ -9350,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>565</v>
       </c>
@@ -9365,7 +9369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>567</v>
       </c>
@@ -9380,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>569</v>
       </c>
@@ -9395,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>571</v>
       </c>
@@ -9413,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>573</v>
       </c>
@@ -9431,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>575</v>
       </c>
@@ -9446,7 +9450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>577</v>
       </c>
@@ -9461,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>579</v>
       </c>
@@ -9476,7 +9480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>581</v>
       </c>
@@ -9491,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>583</v>
       </c>
@@ -9506,7 +9510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>585</v>
       </c>
@@ -9521,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>587</v>
       </c>
@@ -9536,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>589</v>
       </c>
@@ -9551,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>591</v>
       </c>
@@ -9566,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>593</v>
       </c>
@@ -9581,7 +9585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>595</v>
       </c>
@@ -9596,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>597</v>
       </c>
@@ -9611,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>599</v>
       </c>
@@ -9626,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>601</v>
       </c>
@@ -9641,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>603</v>
       </c>
@@ -9656,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>605</v>
       </c>
@@ -9671,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>607</v>
       </c>
@@ -9686,7 +9690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>609</v>
       </c>
@@ -9701,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>611</v>
       </c>
@@ -9716,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>613</v>
       </c>
@@ -9731,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>615</v>
       </c>
@@ -9746,7 +9750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>617</v>
       </c>
@@ -9761,7 +9765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>619</v>
       </c>
@@ -9776,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>621</v>
       </c>
@@ -9791,7 +9795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>623</v>
       </c>
@@ -9806,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>625</v>
       </c>
@@ -9821,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>627</v>
       </c>
@@ -9836,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>629</v>
       </c>
@@ -9851,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>631</v>
       </c>
@@ -9866,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>633</v>
       </c>
@@ -9881,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>635</v>
       </c>
@@ -9896,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>637</v>
       </c>
@@ -9911,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>639</v>
       </c>
@@ -9926,7 +9930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>641</v>
       </c>
@@ -9941,7 +9945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>643</v>
       </c>
@@ -9956,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>645</v>
       </c>
@@ -9971,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>647</v>
       </c>
@@ -9986,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>649</v>
       </c>
@@ -10001,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>649</v>
       </c>
@@ -10016,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>652</v>
       </c>
@@ -10031,7 +10035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>654</v>
       </c>
@@ -10046,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>656</v>
       </c>
@@ -10061,7 +10065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>658</v>
       </c>
@@ -10076,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>660</v>
       </c>
@@ -10091,7 +10095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>662</v>
       </c>
@@ -10106,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>664</v>
       </c>
@@ -10121,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>666</v>
       </c>
@@ -10136,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>668</v>
       </c>
@@ -10151,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>670</v>
       </c>
@@ -10169,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>672</v>
       </c>
@@ -10184,7 +10188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>674</v>
       </c>
@@ -10199,7 +10203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>675</v>
       </c>
@@ -10214,7 +10218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>677</v>
       </c>
@@ -10229,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>679</v>
       </c>
@@ -10244,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>681</v>
       </c>
@@ -10259,7 +10263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>683</v>
       </c>
@@ -10274,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>685</v>
       </c>
@@ -10289,7 +10293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>687</v>
       </c>
@@ -10304,7 +10308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>689</v>
       </c>
@@ -10319,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>691</v>
       </c>
@@ -10334,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>693</v>
       </c>
@@ -10349,7 +10353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>695</v>
       </c>
@@ -10364,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>697</v>
       </c>
@@ -10379,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>699</v>
       </c>
@@ -10394,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>701</v>
       </c>
@@ -10409,7 +10413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>703</v>
       </c>
@@ -10424,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>705</v>
       </c>
@@ -10439,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>707</v>
       </c>
@@ -10454,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>708</v>
       </c>
@@ -10469,7 +10473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>710</v>
       </c>
@@ -10487,7 +10491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>712</v>
       </c>
@@ -10502,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>714</v>
       </c>
@@ -10517,7 +10521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>716</v>
       </c>
@@ -10532,7 +10536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>718</v>
       </c>
@@ -10547,7 +10551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>720</v>
       </c>
@@ -10562,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>722</v>
       </c>
@@ -10577,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>724</v>
       </c>
@@ -10592,7 +10596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>726</v>
       </c>
@@ -10607,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>728</v>
       </c>
@@ -10625,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>730</v>
       </c>
@@ -10640,7 +10644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>732</v>
       </c>
@@ -10655,7 +10659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>734</v>
       </c>
@@ -10670,7 +10674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>736</v>
       </c>
@@ -10685,7 +10689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>738</v>
       </c>
@@ -10700,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>740</v>
       </c>
@@ -10718,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>742</v>
       </c>
@@ -10733,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>744</v>
       </c>
@@ -10751,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>746</v>
       </c>
@@ -10766,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>748</v>
       </c>
@@ -10781,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>750</v>
       </c>
@@ -10796,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>752</v>
       </c>
@@ -10811,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>754</v>
       </c>
@@ -10826,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>756</v>
       </c>
@@ -10844,7 +10848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>758</v>
       </c>
@@ -10859,7 +10863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>760</v>
       </c>
@@ -10874,7 +10878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>762</v>
       </c>
@@ -10889,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>764</v>
       </c>
@@ -10904,7 +10908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>766</v>
       </c>
@@ -10919,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>768</v>
       </c>
@@ -10934,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>770</v>
       </c>
@@ -10952,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>772</v>
       </c>
@@ -10970,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>774</v>
       </c>
@@ -10985,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>776</v>
       </c>
@@ -11000,7 +11004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>778</v>
       </c>
@@ -11015,7 +11019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>780</v>
       </c>
@@ -11030,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>782</v>
       </c>
@@ -11045,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>784</v>
       </c>
@@ -11060,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>786</v>
       </c>
@@ -11075,7 +11079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>788</v>
       </c>
@@ -11090,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>790</v>
       </c>
@@ -11105,7 +11109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>792</v>
       </c>
@@ -11123,7 +11127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>794</v>
       </c>
@@ -11141,7 +11145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>796</v>
       </c>
@@ -11156,7 +11160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>798</v>
       </c>
@@ -11174,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>800</v>
       </c>
@@ -11189,7 +11193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>802</v>
       </c>
@@ -11204,7 +11208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>804</v>
       </c>
@@ -11219,7 +11223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>806</v>
       </c>
@@ -11234,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>808</v>
       </c>
@@ -11249,7 +11253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>810</v>
       </c>
@@ -11264,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>812</v>
       </c>
@@ -11279,7 +11283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>814</v>
       </c>
@@ -11294,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>816</v>
       </c>
@@ -11309,7 +11313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>818</v>
       </c>
@@ -11324,7 +11328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>820</v>
       </c>
@@ -11339,7 +11343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>822</v>
       </c>
@@ -11354,7 +11358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>824</v>
       </c>
@@ -11369,7 +11373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>826</v>
       </c>
@@ -11384,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>828</v>
       </c>
@@ -11399,7 +11403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>830</v>
       </c>
@@ -11417,7 +11421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>832</v>
       </c>
@@ -11432,7 +11436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>834</v>
       </c>
@@ -11447,7 +11451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>836</v>
       </c>
@@ -11462,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>838</v>
       </c>
@@ -11477,7 +11481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>840</v>
       </c>
@@ -11492,7 +11496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>842</v>
       </c>
@@ -11507,7 +11511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>844</v>
       </c>
@@ -11525,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>846</v>
       </c>
@@ -11543,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>848</v>
       </c>
@@ -11558,7 +11562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>850</v>
       </c>
@@ -11573,7 +11577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>852</v>
       </c>
@@ -11588,7 +11592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>854</v>
       </c>
@@ -11603,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>856</v>
       </c>
@@ -11618,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>858</v>
       </c>
@@ -11633,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>860</v>
       </c>
@@ -11651,7 +11655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>862</v>
       </c>
@@ -11666,7 +11670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>864</v>
       </c>
@@ -11681,7 +11685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>866</v>
       </c>
@@ -11696,7 +11700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>868</v>
       </c>
@@ -11711,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>870</v>
       </c>
@@ -11729,7 +11733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>872</v>
       </c>
@@ -11744,7 +11748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>874</v>
       </c>
@@ -11759,7 +11763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>876</v>
       </c>
@@ -11774,7 +11778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>878</v>
       </c>
@@ -11789,7 +11793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>880</v>
       </c>
@@ -11804,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>882</v>
       </c>
@@ -11819,7 +11823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>884</v>
       </c>
@@ -11834,7 +11838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>886</v>
       </c>
@@ -11849,7 +11853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>888</v>
       </c>
@@ -11864,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>890</v>
       </c>
@@ -11882,7 +11886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>892</v>
       </c>
@@ -11900,7 +11904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>894</v>
       </c>
@@ -11915,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>896</v>
       </c>
@@ -11930,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>898</v>
       </c>
@@ -11945,7 +11949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>900</v>
       </c>
@@ -11960,7 +11964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>902</v>
       </c>
@@ -11975,7 +11979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>904</v>
       </c>
@@ -11990,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>906</v>
       </c>
@@ -12005,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>908</v>
       </c>
@@ -12020,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>910</v>
       </c>
@@ -12035,7 +12039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>912</v>
       </c>
@@ -12050,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>914</v>
       </c>
@@ -12065,7 +12069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>916</v>
       </c>
@@ -12080,7 +12084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>918</v>
       </c>
@@ -12095,7 +12099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>920</v>
       </c>
@@ -12110,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>922</v>
       </c>
@@ -12125,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>924</v>
       </c>
@@ -12140,7 +12144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>926</v>
       </c>
@@ -12155,7 +12159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>928</v>
       </c>
@@ -12170,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>930</v>
       </c>
@@ -12188,7 +12192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>932</v>
       </c>
@@ -12203,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>934</v>
       </c>
@@ -12218,7 +12222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>936</v>
       </c>
@@ -12233,7 +12237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>938</v>
       </c>
@@ -12248,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>940</v>
       </c>
@@ -12263,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>942</v>
       </c>
@@ -12278,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>944</v>
       </c>
@@ -12293,7 +12297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>946</v>
       </c>
@@ -12308,7 +12312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>948</v>
       </c>
@@ -12323,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>950</v>
       </c>
@@ -12338,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>952</v>
       </c>
@@ -12353,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>954</v>
       </c>
@@ -12368,7 +12372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>956</v>
       </c>
@@ -12383,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>958</v>
       </c>
@@ -12398,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>960</v>
       </c>
@@ -12416,7 +12420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>962</v>
       </c>
@@ -12431,7 +12435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>964</v>
       </c>
@@ -12446,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>966</v>
       </c>
@@ -12464,7 +12468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>968</v>
       </c>
@@ -12479,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>970</v>
       </c>
@@ -12494,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>972</v>
       </c>
@@ -12509,7 +12513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>974</v>
       </c>
@@ -12524,7 +12528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>976</v>
       </c>
@@ -12539,7 +12543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>978</v>
       </c>
@@ -12554,7 +12558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>980</v>
       </c>
@@ -12569,7 +12573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>982</v>
       </c>
@@ -12584,7 +12588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>984</v>
       </c>
@@ -12599,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>986</v>
       </c>
@@ -12614,7 +12618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>988</v>
       </c>
@@ -12629,7 +12633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>990</v>
       </c>
@@ -12644,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>992</v>
       </c>
@@ -12662,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>994</v>
       </c>
@@ -12677,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>996</v>
       </c>
@@ -12695,7 +12699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>997</v>
       </c>
@@ -12710,7 +12714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>999</v>
       </c>
@@ -12725,7 +12729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>1001</v>
       </c>
@@ -12740,7 +12744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>1003</v>
       </c>
@@ -12755,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>1005</v>
       </c>
@@ -12770,7 +12774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>1007</v>
       </c>
@@ -12785,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>1009</v>
       </c>
@@ -12800,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>1011</v>
       </c>
@@ -12815,7 +12819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1013</v>
       </c>
@@ -12830,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1015</v>
       </c>
@@ -12845,7 +12849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1017</v>
       </c>
@@ -12860,7 +12864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1019</v>
       </c>
@@ -12875,7 +12879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1021</v>
       </c>
@@ -12890,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1023</v>
       </c>
@@ -12905,7 +12909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1025</v>
       </c>
@@ -12920,7 +12924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1027</v>
       </c>
@@ -12935,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1029</v>
       </c>
@@ -12950,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1031</v>
       </c>
@@ -12965,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1033</v>
       </c>
@@ -12980,7 +12984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1035</v>
       </c>
@@ -12995,7 +12999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1037</v>
       </c>
@@ -13013,7 +13017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1039</v>
       </c>
@@ -13028,7 +13032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1041</v>
       </c>
@@ -13043,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1043</v>
       </c>
@@ -13058,7 +13062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1045</v>
       </c>
@@ -13073,7 +13077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1047</v>
       </c>
@@ -13088,7 +13092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1049</v>
       </c>
@@ -13103,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1051</v>
       </c>
@@ -13118,7 +13122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1053</v>
       </c>
@@ -13133,7 +13137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1055</v>
       </c>
@@ -13151,7 +13155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1057</v>
       </c>
@@ -13169,7 +13173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1059</v>
       </c>
@@ -13184,7 +13188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1061</v>
       </c>
@@ -13202,7 +13206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1063</v>
       </c>
@@ -13217,7 +13221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1065</v>
       </c>
@@ -13232,7 +13236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1067</v>
       </c>
@@ -13247,7 +13251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1069</v>
       </c>
@@ -13262,7 +13266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1071</v>
       </c>
@@ -13277,7 +13281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1073</v>
       </c>
@@ -13292,7 +13296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1075</v>
       </c>
@@ -13307,7 +13311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1077</v>
       </c>
@@ -13322,7 +13326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1079</v>
       </c>
@@ -13337,7 +13341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1081</v>
       </c>
@@ -13352,7 +13356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1083</v>
       </c>
@@ -13367,7 +13371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1084</v>
       </c>
@@ -13382,7 +13386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1086</v>
       </c>
@@ -13397,7 +13401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1088</v>
       </c>
@@ -13412,7 +13416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1090</v>
       </c>
@@ -13427,7 +13431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1092</v>
       </c>
@@ -13442,7 +13446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1094</v>
       </c>
@@ -13457,7 +13461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1096</v>
       </c>
@@ -13472,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1098</v>
       </c>
@@ -13487,7 +13491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1100</v>
       </c>
@@ -13502,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1102</v>
       </c>
@@ -13517,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1104</v>
       </c>
@@ -13532,7 +13536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1106</v>
       </c>
@@ -13547,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1108</v>
       </c>
@@ -13562,7 +13566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1110</v>
       </c>
@@ -13577,7 +13581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1112</v>
       </c>
@@ -13592,7 +13596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1114</v>
       </c>
@@ -13607,7 +13611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1116</v>
       </c>
@@ -13622,7 +13626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1118</v>
       </c>
@@ -13637,7 +13641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1120</v>
       </c>
@@ -13652,7 +13656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1122</v>
       </c>
@@ -13667,7 +13671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1124</v>
       </c>
@@ -13682,7 +13686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1126</v>
       </c>
@@ -13697,7 +13701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1128</v>
       </c>
@@ -13712,7 +13716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1130</v>
       </c>
@@ -13727,7 +13731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1132</v>
       </c>
@@ -13742,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1134</v>
       </c>
@@ -13757,7 +13761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1136</v>
       </c>
@@ -13772,7 +13776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1138</v>
       </c>
@@ -13787,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1140</v>
       </c>
@@ -13805,7 +13809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1142</v>
       </c>
@@ -13820,7 +13824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1144</v>
       </c>
@@ -13835,7 +13839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1146</v>
       </c>
@@ -13850,7 +13854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1148</v>
       </c>
@@ -13865,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1150</v>
       </c>
@@ -13880,7 +13884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1152</v>
       </c>
@@ -13895,7 +13899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1154</v>
       </c>
@@ -13910,7 +13914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1156</v>
       </c>
@@ -13925,7 +13929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1158</v>
       </c>
@@ -13940,7 +13944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1160</v>
       </c>
@@ -13955,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1162</v>
       </c>
@@ -13970,7 +13974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1164</v>
       </c>
@@ -13985,7 +13989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1165</v>
       </c>
@@ -14003,7 +14007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1167</v>
       </c>
@@ -14018,7 +14022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1169</v>
       </c>
@@ -14033,7 +14037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1171</v>
       </c>
@@ -14048,7 +14052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1173</v>
       </c>
@@ -14063,7 +14067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1175</v>
       </c>
@@ -14078,7 +14082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1177</v>
       </c>
@@ -14093,7 +14097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1179</v>
       </c>
@@ -14108,7 +14112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1181</v>
       </c>
@@ -14123,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1183</v>
       </c>
@@ -14138,7 +14142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1185</v>
       </c>
@@ -14156,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1187</v>
       </c>
@@ -14171,7 +14175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1189</v>
       </c>
@@ -14186,7 +14190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1191</v>
       </c>
@@ -14201,7 +14205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1193</v>
       </c>
@@ -14216,7 +14220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1195</v>
       </c>
@@ -14231,7 +14235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1197</v>
       </c>
@@ -14246,7 +14250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1199</v>
       </c>
@@ -14261,7 +14265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1201</v>
       </c>
@@ -14276,7 +14280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1203</v>
       </c>
@@ -14291,7 +14295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1205</v>
       </c>
@@ -14306,7 +14310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1207</v>
       </c>
@@ -14321,7 +14325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1209</v>
       </c>
@@ -14336,7 +14340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1211</v>
       </c>
@@ -14351,7 +14355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1213</v>
       </c>
@@ -14366,7 +14370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1215</v>
       </c>
@@ -14381,7 +14385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1217</v>
       </c>
@@ -14396,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1219</v>
       </c>
@@ -14411,7 +14415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1221</v>
       </c>
@@ -14426,7 +14430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1223</v>
       </c>
@@ -14441,7 +14445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1225</v>
       </c>
@@ -14456,7 +14460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1227</v>
       </c>
@@ -14471,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1229</v>
       </c>
@@ -14486,7 +14490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1231</v>
       </c>
@@ -14501,7 +14505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1233</v>
       </c>
@@ -14519,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1235</v>
       </c>
@@ -14537,7 +14541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1237</v>
       </c>
@@ -14552,7 +14556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1239</v>
       </c>
@@ -14567,7 +14571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1241</v>
       </c>
@@ -14582,7 +14586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1243</v>
       </c>
@@ -14597,7 +14601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1245</v>
       </c>
@@ -14612,7 +14616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1247</v>
       </c>
@@ -14627,7 +14631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1249</v>
       </c>
@@ -14642,7 +14646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1251</v>
       </c>
@@ -14657,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1253</v>
       </c>
@@ -14672,7 +14676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1255</v>
       </c>
@@ -14687,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1257</v>
       </c>
@@ -14702,7 +14706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1259</v>
       </c>
@@ -14717,7 +14721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1261</v>
       </c>
@@ -14732,7 +14736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1263</v>
       </c>
@@ -14747,7 +14751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1265</v>
       </c>
@@ -14762,7 +14766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1267</v>
       </c>
@@ -14777,7 +14781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1269</v>
       </c>
@@ -14792,7 +14796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1271</v>
       </c>
@@ -14807,7 +14811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1273</v>
       </c>
@@ -14822,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1275</v>
       </c>
@@ -14837,7 +14841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1277</v>
       </c>
@@ -14852,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1279</v>
       </c>
@@ -14867,7 +14871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1281</v>
       </c>
@@ -14882,7 +14886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1283</v>
       </c>
@@ -14897,7 +14901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1285</v>
       </c>
@@ -14912,7 +14916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1287</v>
       </c>
@@ -14927,7 +14931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1289</v>
       </c>
@@ -14942,7 +14946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1290</v>
       </c>
@@ -14957,7 +14961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1292</v>
       </c>
@@ -14972,7 +14976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1294</v>
       </c>
@@ -14987,7 +14991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1296</v>
       </c>
@@ -15002,7 +15006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1298</v>
       </c>
@@ -15020,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1300</v>
       </c>
@@ -15035,7 +15039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1302</v>
       </c>
@@ -15050,7 +15054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1304</v>
       </c>
@@ -15065,7 +15069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1306</v>
       </c>
@@ -15080,7 +15084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1308</v>
       </c>
@@ -15095,7 +15099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1310</v>
       </c>
@@ -15110,7 +15114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1312</v>
       </c>
@@ -15125,7 +15129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1314</v>
       </c>
@@ -15143,7 +15147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1315</v>
       </c>
@@ -15158,7 +15162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1317</v>
       </c>
@@ -15173,7 +15177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1319</v>
       </c>
@@ -15188,7 +15192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1321</v>
       </c>
@@ -15203,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1323</v>
       </c>
@@ -15218,7 +15222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1325</v>
       </c>
@@ -15233,7 +15237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1327</v>
       </c>
@@ -15248,7 +15252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1329</v>
       </c>
@@ -15266,7 +15270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1331</v>
       </c>
@@ -15284,7 +15288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1333</v>
       </c>
@@ -15299,7 +15303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1335</v>
       </c>
@@ -15314,7 +15318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1337</v>
       </c>
@@ -15329,7 +15333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1339</v>
       </c>
@@ -15344,7 +15348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1341</v>
       </c>
@@ -15359,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1343</v>
       </c>
@@ -15374,7 +15378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1345</v>
       </c>
@@ -15389,7 +15393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1347</v>
       </c>
@@ -15404,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1349</v>
       </c>
@@ -15419,7 +15423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1351</v>
       </c>
@@ -15434,7 +15438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1353</v>
       </c>
@@ -15449,7 +15453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1355</v>
       </c>
@@ -15464,7 +15468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>1357</v>
       </c>
@@ -15479,7 +15483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>1359</v>
       </c>
@@ -15497,7 +15501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>1361</v>
       </c>
@@ -15512,7 +15516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>1363</v>
       </c>
@@ -15527,7 +15531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>1365</v>
       </c>
@@ -15542,7 +15546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>1367</v>
       </c>
@@ -15557,7 +15561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>1369</v>
       </c>
@@ -15575,7 +15579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>1371</v>
       </c>
@@ -15590,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>1373</v>
       </c>
@@ -15608,7 +15612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>1375</v>
       </c>
@@ -15623,7 +15627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>1377</v>
       </c>
@@ -15638,7 +15642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>1379</v>
       </c>
@@ -15656,7 +15660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>1381</v>
       </c>
@@ -15674,7 +15678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>1383</v>
       </c>
@@ -15689,7 +15693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>1385</v>
       </c>
@@ -15704,7 +15708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>1387</v>
       </c>
@@ -15719,7 +15723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>1389</v>
       </c>
@@ -15734,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>1391</v>
       </c>
@@ -15749,7 +15753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>1393</v>
       </c>
@@ -15764,7 +15768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>1395</v>
       </c>
@@ -15782,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>1397</v>
       </c>
@@ -15797,7 +15801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>1399</v>
       </c>
@@ -15812,7 +15816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>1401</v>
       </c>
@@ -15827,7 +15831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>1403</v>
       </c>
@@ -15838,11 +15842,11 @@
         <v>2.4860350415110592E-2</v>
       </c>
       <c r="D706">
-        <f t="shared" ref="D706:D769" si="11">IF(C706&gt;0.5, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D706:D761" si="11">IF(C706&gt;0.5, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>1405</v>
       </c>
@@ -15857,7 +15861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>1407</v>
       </c>
@@ -15872,7 +15876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>1409</v>
       </c>
@@ -15887,7 +15891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>1411</v>
       </c>
@@ -15902,7 +15906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>1413</v>
       </c>
@@ -15917,7 +15921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>1415</v>
       </c>
@@ -15932,7 +15936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>1417</v>
       </c>
@@ -15950,7 +15954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>1419</v>
       </c>
@@ -15965,7 +15969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>1421</v>
       </c>
@@ -15980,7 +15984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>1423</v>
       </c>
@@ -15995,7 +15999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>1425</v>
       </c>
@@ -16010,7 +16014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>1427</v>
       </c>
@@ -16025,7 +16029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>1429</v>
       </c>
@@ -16040,7 +16044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>1431</v>
       </c>
@@ -16055,7 +16059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>1433</v>
       </c>
@@ -16070,7 +16074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>1435</v>
       </c>
@@ -16088,7 +16092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>1437</v>
       </c>
@@ -16103,7 +16107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>1439</v>
       </c>
@@ -16118,7 +16122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>1441</v>
       </c>
@@ -16133,7 +16137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>1443</v>
       </c>
@@ -16151,7 +16155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>1445</v>
       </c>
@@ -16169,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>1447</v>
       </c>
@@ -16187,7 +16191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>1449</v>
       </c>
@@ -16202,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>1451</v>
       </c>
@@ -16217,7 +16221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>1453</v>
       </c>
@@ -16232,7 +16236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>1455</v>
       </c>
@@ -16247,7 +16251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>1457</v>
       </c>
@@ -16262,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>1459</v>
       </c>
@@ -16277,7 +16281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>1461</v>
       </c>
@@ -16292,7 +16296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>1463</v>
       </c>
@@ -16307,7 +16311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>1465</v>
       </c>
@@ -16325,7 +16329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>1467</v>
       </c>
@@ -16340,7 +16344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>1469</v>
       </c>
@@ -16355,7 +16359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>1471</v>
       </c>
@@ -16373,7 +16377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>1473</v>
       </c>
@@ -16388,7 +16392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>1475</v>
       </c>
@@ -16403,7 +16407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>1477</v>
       </c>
@@ -16418,7 +16422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>1479</v>
       </c>
@@ -16433,7 +16437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>1481</v>
       </c>
@@ -16451,7 +16455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>1483</v>
       </c>
@@ -16466,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>1485</v>
       </c>
@@ -16481,7 +16485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>1487</v>
       </c>
@@ -16496,7 +16500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>1489</v>
       </c>
@@ -16511,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>1491</v>
       </c>
@@ -16526,7 +16530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>1493</v>
       </c>
@@ -16541,7 +16545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>1495</v>
       </c>
@@ -16556,7 +16560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" t="s">
         <v>1497</v>
       </c>
@@ -16571,7 +16575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" t="s">
         <v>1499</v>
       </c>
@@ -16586,7 +16590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" t="s">
         <v>1501</v>
       </c>
@@ -16601,7 +16605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" t="s">
         <v>1503</v>
       </c>
@@ -16616,7 +16620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" t="s">
         <v>1505</v>
       </c>
@@ -16631,7 +16635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" t="s">
         <v>1507</v>
       </c>
@@ -16646,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" t="s">
         <v>1509</v>
       </c>
@@ -16661,7 +16665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" t="s">
         <v>1511</v>
       </c>
@@ -16676,7 +16680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" t="s">
         <v>1513</v>
       </c>
@@ -16691,7 +16695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" t="s">
         <v>1515</v>
       </c>
@@ -16708,7 +16712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" t="s">
         <v>1517</v>
       </c>
@@ -16723,7 +16727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" t="s">
         <v>1519</v>
       </c>
@@ -16738,7 +16742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" t="s">
         <v>1521</v>
       </c>
@@ -16753,7 +16757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" t="s">
         <v>1523</v>
       </c>
@@ -16768,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" t="s">
         <v>1525</v>
       </c>
@@ -16783,7 +16787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" t="s">
         <v>1527</v>
       </c>
@@ -16798,7 +16802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" t="s">
         <v>1529</v>
       </c>
@@ -16816,7 +16820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" t="s">
         <v>1531</v>
       </c>
@@ -16831,7 +16835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" t="s">
         <v>1533</v>
       </c>
@@ -16846,7 +16850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" t="s">
         <v>1535</v>
       </c>
@@ -16861,7 +16865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" t="s">
         <v>1537</v>
       </c>
@@ -16876,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" t="s">
         <v>1539</v>
       </c>
@@ -16892,16 +16896,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D774" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F774">
-      <sortCondition descending="1" ref="D1:D774"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="D1:D774" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F774">
     <sortCondition ref="F2:F774"/>
   </sortState>

--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지1.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C5F23C-7242-4AFC-9319-C3E6ACC42953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A66585-99F3-4BC5-8A43-0DF334D8D3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6446" yWindow="8314" windowWidth="16328" windowHeight="13055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -5061,7 +5061,7 @@
   <dimension ref="A1:F774"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -5103,11 +5103,10 @@
         <v>2.9821036383509639E-2</v>
       </c>
       <c r="D2">
-        <f>IF(C2&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D2:D33" si="0">IF(C2&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>IF(ISBLANK(F2),D2,F2)</f>
         <v>0</v>
       </c>
     </row>
@@ -5122,11 +5121,10 @@
         <v>1.372701209038496E-2</v>
       </c>
       <c r="D3">
-        <f>IF(C3&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>IF(ISBLANK(F3),D3,F3)</f>
         <v>0</v>
       </c>
     </row>
@@ -5141,11 +5139,10 @@
         <v>1.36858532205224E-2</v>
       </c>
       <c r="D4">
-        <f>IF(C4&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>IF(ISBLANK(F4),D4,F4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5160,11 +5157,10 @@
         <v>1.3739787042140961E-2</v>
       </c>
       <c r="D5">
-        <f>IF(C5&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>IF(ISBLANK(F5),D5,F5)</f>
         <v>0</v>
       </c>
     </row>
@@ -5179,11 +5175,10 @@
         <v>0.11215647310018539</v>
       </c>
       <c r="D6">
-        <f>IF(C6&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>IF(ISBLANK(F6),D6,F6)</f>
         <v>0</v>
       </c>
     </row>
@@ -5198,11 +5193,10 @@
         <v>1.50391748175025E-2</v>
       </c>
       <c r="D7">
-        <f>IF(C7&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>IF(ISBLANK(F7),D7,F7)</f>
         <v>0</v>
       </c>
     </row>
@@ -5217,11 +5211,10 @@
         <v>0.91552531719207764</v>
       </c>
       <c r="D8">
-        <f>IF(C8&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8">
-        <f>IF(ISBLANK(F8),D8,F8)</f>
         <v>1</v>
       </c>
     </row>
@@ -5236,11 +5229,10 @@
         <v>1.368696056306362E-2</v>
       </c>
       <c r="D9">
-        <f>IF(C9&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>IF(ISBLANK(F9),D9,F9)</f>
         <v>0</v>
       </c>
     </row>
@@ -5255,11 +5247,10 @@
         <v>1.3584545813500879E-2</v>
       </c>
       <c r="D10">
-        <f>IF(C10&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>IF(ISBLANK(F10),D10,F10)</f>
         <v>0</v>
       </c>
     </row>
@@ -5274,11 +5265,10 @@
         <v>1.371484156697989E-2</v>
       </c>
       <c r="D11">
-        <f>IF(C11&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>IF(ISBLANK(F11),D11,F11)</f>
         <v>0</v>
       </c>
     </row>
@@ -5293,11 +5283,10 @@
         <v>1.35926054790616E-2</v>
       </c>
       <c r="D12">
-        <f>IF(C12&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>IF(ISBLANK(F12),D12,F12)</f>
         <v>0</v>
       </c>
     </row>
@@ -5312,11 +5301,10 @@
         <v>1.383911911398172E-2</v>
       </c>
       <c r="D13">
-        <f>IF(C13&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>IF(ISBLANK(F13),D13,F13)</f>
         <v>0</v>
       </c>
     </row>
@@ -5331,11 +5319,10 @@
         <v>1.382752694189548E-2</v>
       </c>
       <c r="D14">
-        <f>IF(C14&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>IF(ISBLANK(F14),D14,F14)</f>
         <v>0</v>
       </c>
     </row>
@@ -5350,11 +5337,10 @@
         <v>1.366371661424637E-2</v>
       </c>
       <c r="D15">
-        <f>IF(C15&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f>IF(ISBLANK(F15),D15,F15)</f>
         <v>0</v>
       </c>
     </row>
@@ -5369,11 +5355,10 @@
         <v>1.36980889365077E-2</v>
       </c>
       <c r="D16">
-        <f>IF(C16&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f>IF(ISBLANK(F16),D16,F16)</f>
         <v>0</v>
       </c>
     </row>
@@ -5388,11 +5373,10 @@
         <v>1.3666396029293541E-2</v>
       </c>
       <c r="D17">
-        <f>IF(C17&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>IF(ISBLANK(F17),D17,F17)</f>
         <v>0</v>
       </c>
     </row>
@@ -5407,11 +5391,10 @@
         <v>1.3749063014984131E-2</v>
       </c>
       <c r="D18">
-        <f>IF(C18&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f>IF(ISBLANK(F18),D18,F18)</f>
         <v>0</v>
       </c>
     </row>
@@ -5426,11 +5409,10 @@
         <v>1.3848987407982349E-2</v>
       </c>
       <c r="D19">
-        <f>IF(C19&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f>IF(ISBLANK(F19),D19,F19)</f>
         <v>0</v>
       </c>
     </row>
@@ -5445,11 +5427,10 @@
         <v>1.3888906687498089E-2</v>
       </c>
       <c r="D20">
-        <f>IF(C20&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f>IF(ISBLANK(F20),D20,F20)</f>
         <v>0</v>
       </c>
     </row>
@@ -5464,11 +5445,10 @@
         <v>2.3322457447648048E-2</v>
       </c>
       <c r="D21">
-        <f>IF(C21&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f>IF(ISBLANK(F21),D21,F21)</f>
         <v>0</v>
       </c>
     </row>
@@ -5483,11 +5463,10 @@
         <v>1.37688685208559E-2</v>
       </c>
       <c r="D22">
-        <f>IF(C22&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f>IF(ISBLANK(F22),D22,F22)</f>
         <v>0</v>
       </c>
     </row>
@@ -5502,11 +5481,10 @@
         <v>1.396612823009491E-2</v>
       </c>
       <c r="D23">
-        <f>IF(C23&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>IF(ISBLANK(F23),D23,F23)</f>
         <v>0</v>
       </c>
     </row>
@@ -5521,11 +5499,10 @@
         <v>1.527925487607718E-2</v>
       </c>
       <c r="D24">
-        <f>IF(C24&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>IF(ISBLANK(F24),D24,F24)</f>
         <v>0</v>
       </c>
     </row>
@@ -5540,11 +5517,10 @@
         <v>1.391739584505558E-2</v>
       </c>
       <c r="D25">
-        <f>IF(C25&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f>IF(ISBLANK(F25),D25,F25)</f>
         <v>0</v>
       </c>
     </row>
@@ -5559,11 +5535,10 @@
         <v>1.369921583682299E-2</v>
       </c>
       <c r="D26">
-        <f>IF(C26&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>IF(ISBLANK(F26),D26,F26)</f>
         <v>0</v>
       </c>
     </row>
@@ -5578,11 +5553,10 @@
         <v>1.3929952867329121E-2</v>
       </c>
       <c r="D27">
-        <f>IF(C27&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>IF(ISBLANK(F27),D27,F27)</f>
         <v>0</v>
       </c>
     </row>
@@ -5597,11 +5571,10 @@
         <v>3.3701721578836441E-2</v>
       </c>
       <c r="D28">
-        <f>IF(C28&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>IF(ISBLANK(F28),D28,F28)</f>
         <v>0</v>
       </c>
     </row>
@@ -5616,11 +5589,10 @@
         <v>1.401812396943569E-2</v>
       </c>
       <c r="D29">
-        <f>IF(C29&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>IF(ISBLANK(F29),D29,F29)</f>
         <v>0</v>
       </c>
     </row>
@@ -5635,11 +5607,10 @@
         <v>5.4622244089841843E-2</v>
       </c>
       <c r="D30">
-        <f>IF(C30&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f>IF(ISBLANK(F30),D30,F30)</f>
         <v>0</v>
       </c>
     </row>
@@ -5654,11 +5625,10 @@
         <v>0.98543047904968262</v>
       </c>
       <c r="D31">
-        <f>IF(C31&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E31">
-        <f>IF(ISBLANK(F31),D31,F31)</f>
         <v>0</v>
       </c>
       <c r="F31">
@@ -5676,11 +5646,10 @@
         <v>1.4042306691408161E-2</v>
       </c>
       <c r="D32">
-        <f>IF(C32&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f>IF(ISBLANK(F32),D32,F32)</f>
         <v>0</v>
       </c>
     </row>
@@ -5695,11 +5664,10 @@
         <v>1.4035291038453581E-2</v>
       </c>
       <c r="D33">
-        <f>IF(C33&gt;0.5, 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f>IF(ISBLANK(F33),D33,F33)</f>
         <v>0</v>
       </c>
     </row>
@@ -5714,11 +5682,10 @@
         <v>1.8216643482446671E-2</v>
       </c>
       <c r="D34">
-        <f>IF(C34&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D34:D65" si="1">IF(C34&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E34">
-        <f>IF(ISBLANK(F34),D34,F34)</f>
         <v>0</v>
       </c>
     </row>
@@ -5733,11 +5700,10 @@
         <v>1.3693624176085E-2</v>
       </c>
       <c r="D35">
-        <f>IF(C35&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f>IF(ISBLANK(F35),D35,F35)</f>
         <v>0</v>
       </c>
     </row>
@@ -5752,11 +5718,10 @@
         <v>1.3981126248836521E-2</v>
       </c>
       <c r="D36">
-        <f>IF(C36&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f>IF(ISBLANK(F36),D36,F36)</f>
         <v>0</v>
       </c>
     </row>
@@ -5771,11 +5736,10 @@
         <v>2.1901315078139309E-2</v>
       </c>
       <c r="D37">
-        <f>IF(C37&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f>IF(ISBLANK(F37),D37,F37)</f>
         <v>0</v>
       </c>
     </row>
@@ -5790,11 +5754,10 @@
         <v>2.4766527116298679E-2</v>
       </c>
       <c r="D38">
-        <f>IF(C38&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f>IF(ISBLANK(F38),D38,F38)</f>
         <v>0</v>
       </c>
     </row>
@@ -5809,11 +5772,10 @@
         <v>1.3954647816717619E-2</v>
       </c>
       <c r="D39">
-        <f>IF(C39&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f>IF(ISBLANK(F39),D39,F39)</f>
         <v>0</v>
       </c>
     </row>
@@ -5828,11 +5790,10 @@
         <v>1.399575360119343E-2</v>
       </c>
       <c r="D40">
-        <f>IF(C40&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f>IF(ISBLANK(F40),D40,F40)</f>
         <v>0</v>
       </c>
     </row>
@@ -5847,11 +5808,10 @@
         <v>1.3837322592735291E-2</v>
       </c>
       <c r="D41">
-        <f>IF(C41&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f>IF(ISBLANK(F41),D41,F41)</f>
         <v>0</v>
       </c>
     </row>
@@ -5866,11 +5826,10 @@
         <v>1.459021959453821E-2</v>
       </c>
       <c r="D42">
-        <f>IF(C42&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f>IF(ISBLANK(F42),D42,F42)</f>
         <v>0</v>
       </c>
     </row>
@@ -5885,11 +5844,10 @@
         <v>1.359846349805593E-2</v>
       </c>
       <c r="D43">
-        <f>IF(C43&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f>IF(ISBLANK(F43),D43,F43)</f>
         <v>0</v>
       </c>
     </row>
@@ -5904,11 +5862,10 @@
         <v>1.405239198356867E-2</v>
       </c>
       <c r="D44">
-        <f>IF(C44&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f>IF(ISBLANK(F44),D44,F44)</f>
         <v>0</v>
       </c>
     </row>
@@ -5923,11 +5880,10 @@
         <v>1.379698608070612E-2</v>
       </c>
       <c r="D45">
-        <f>IF(C45&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f>IF(ISBLANK(F45),D45,F45)</f>
         <v>0</v>
       </c>
     </row>
@@ -5942,11 +5898,10 @@
         <v>1.6530238091945652E-2</v>
       </c>
       <c r="D46">
-        <f>IF(C46&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f>IF(ISBLANK(F46),D46,F46)</f>
         <v>0</v>
       </c>
     </row>
@@ -5961,11 +5916,10 @@
         <v>1.399614848196507E-2</v>
       </c>
       <c r="D47">
-        <f>IF(C47&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f>IF(ISBLANK(F47),D47,F47)</f>
         <v>0</v>
       </c>
     </row>
@@ -5980,11 +5934,10 @@
         <v>1.3757451437413691E-2</v>
       </c>
       <c r="D48">
-        <f>IF(C48&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E48">
-        <f>IF(ISBLANK(F48),D48,F48)</f>
         <v>0</v>
       </c>
     </row>
@@ -5999,11 +5952,10 @@
         <v>2.0626010373234749E-2</v>
       </c>
       <c r="D49">
-        <f>IF(C49&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f>IF(ISBLANK(F49),D49,F49)</f>
         <v>0</v>
       </c>
     </row>
@@ -6018,11 +5970,10 @@
         <v>1.374360732734203E-2</v>
       </c>
       <c r="D50">
-        <f>IF(C50&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E50">
-        <f>IF(ISBLANK(F50),D50,F50)</f>
         <v>0</v>
       </c>
     </row>
@@ -6037,11 +5988,10 @@
         <v>1.37291681021452E-2</v>
       </c>
       <c r="D51">
-        <f>IF(C51&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f>IF(ISBLANK(F51),D51,F51)</f>
         <v>0</v>
       </c>
     </row>
@@ -6056,11 +6006,10 @@
         <v>1.367898751050234E-2</v>
       </c>
       <c r="D52">
-        <f>IF(C52&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E52">
-        <f>IF(ISBLANK(F52),D52,F52)</f>
         <v>0</v>
       </c>
     </row>
@@ -6075,11 +6024,10 @@
         <v>1.478374097496271E-2</v>
       </c>
       <c r="D53">
-        <f>IF(C53&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <f>IF(ISBLANK(F53),D53,F53)</f>
         <v>0</v>
       </c>
     </row>
@@ -6094,11 +6042,10 @@
         <v>0.95532518625259399</v>
       </c>
       <c r="D54">
-        <f>IF(C54&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E54">
-        <f>IF(ISBLANK(F54),D54,F54)</f>
         <v>0</v>
       </c>
       <c r="F54">
@@ -6116,11 +6063,10 @@
         <v>1.3974542729556561E-2</v>
       </c>
       <c r="D55">
-        <f>IF(C55&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E55">
-        <f>IF(ISBLANK(F55),D55,F55)</f>
         <v>0</v>
       </c>
     </row>
@@ -6135,11 +6081,10 @@
         <v>1.3719808310270309E-2</v>
       </c>
       <c r="D56">
-        <f>IF(C56&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E56">
-        <f>IF(ISBLANK(F56),D56,F56)</f>
         <v>0</v>
       </c>
     </row>
@@ -6154,11 +6099,10 @@
         <v>1.3763469643890859E-2</v>
       </c>
       <c r="D57">
-        <f>IF(C57&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E57">
-        <f>IF(ISBLANK(F57),D57,F57)</f>
         <v>0</v>
       </c>
     </row>
@@ -6173,11 +6117,10 @@
         <v>1.3956222683191299E-2</v>
       </c>
       <c r="D58">
-        <f>IF(C58&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E58">
-        <f>IF(ISBLANK(F58),D58,F58)</f>
         <v>0</v>
       </c>
     </row>
@@ -6192,11 +6135,10 @@
         <v>1.9054276868700981E-2</v>
       </c>
       <c r="D59">
-        <f>IF(C59&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f>IF(ISBLANK(F59),D59,F59)</f>
         <v>0</v>
       </c>
     </row>
@@ -6211,11 +6153,10 @@
         <v>1.496689021587372E-2</v>
       </c>
       <c r="D60">
-        <f>IF(C60&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f>IF(ISBLANK(F60),D60,F60)</f>
         <v>0</v>
       </c>
     </row>
@@ -6230,11 +6171,10 @@
         <v>1.384109817445278E-2</v>
       </c>
       <c r="D61">
-        <f>IF(C61&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f>IF(ISBLANK(F61),D61,F61)</f>
         <v>0</v>
       </c>
     </row>
@@ -6249,11 +6189,10 @@
         <v>0.12945866584777829</v>
       </c>
       <c r="D62">
-        <f>IF(C62&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E62">
-        <f>IF(ISBLANK(F62),D62,F62)</f>
         <v>0</v>
       </c>
     </row>
@@ -6268,11 +6207,10 @@
         <v>1.361407805234194E-2</v>
       </c>
       <c r="D63">
-        <f>IF(C63&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f>IF(ISBLANK(F63),D63,F63)</f>
         <v>0</v>
       </c>
     </row>
@@ -6287,11 +6225,10 @@
         <v>0.98546856641769409</v>
       </c>
       <c r="D64">
-        <f>IF(C64&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E64">
-        <f>IF(ISBLANK(F64),D64,F64)</f>
         <v>1</v>
       </c>
     </row>
@@ -6306,11 +6243,10 @@
         <v>1.390302553772926E-2</v>
       </c>
       <c r="D65">
-        <f>IF(C65&gt;0.5, 1, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f>IF(ISBLANK(F65),D65,F65)</f>
         <v>0</v>
       </c>
     </row>
@@ -6325,11 +6261,10 @@
         <v>1.400988921523094E-2</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D129" si="0">IF(C66&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D66:D129" si="2">IF(C66&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E66">
-        <f>IF(ISBLANK(F66),D66,F66)</f>
         <v>0</v>
       </c>
     </row>
@@ -6344,11 +6279,10 @@
         <v>1.3691229745745661E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="1">IF(ISBLANK(F67),D67,F67)</f>
         <v>0</v>
       </c>
     </row>
@@ -6363,11 +6297,10 @@
         <v>0.9854772686958313</v>
       </c>
       <c r="D68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6382,11 +6315,10 @@
         <v>1.4455024152994159E-2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6401,11 +6333,10 @@
         <v>3.3965285867452621E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6420,11 +6351,10 @@
         <v>0.98534297943115234</v>
       </c>
       <c r="D71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6439,11 +6369,10 @@
         <v>1.9137810915708538E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6458,11 +6387,10 @@
         <v>1.38408625498414E-2</v>
       </c>
       <c r="D73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6477,11 +6405,10 @@
         <v>0.86290138959884644</v>
       </c>
       <c r="D74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F74">
@@ -6499,11 +6426,10 @@
         <v>1.556512992829084E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6518,11 +6444,10 @@
         <v>1.4036742970347399E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6537,11 +6462,10 @@
         <v>1.4973141252994541E-2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6556,11 +6480,10 @@
         <v>3.1433548778295517E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6575,11 +6498,10 @@
         <v>1.4713342301547531E-2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6594,11 +6516,10 @@
         <v>1.371657662093639E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6613,11 +6534,10 @@
         <v>1.365040708333254E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6632,11 +6552,10 @@
         <v>7.3016583919525146E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6651,11 +6570,10 @@
         <v>1.39121888205409E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6670,11 +6588,10 @@
         <v>2.922703139483929E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6689,11 +6606,10 @@
         <v>1.3725824654102331E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6708,11 +6624,10 @@
         <v>1.3722158968448641E-2</v>
       </c>
       <c r="D86">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6727,11 +6642,10 @@
         <v>2.4783814325928692E-2</v>
       </c>
       <c r="D87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6746,11 +6660,10 @@
         <v>1.370181888341904E-2</v>
       </c>
       <c r="D88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6765,11 +6678,10 @@
         <v>1.622256264090538E-2</v>
       </c>
       <c r="D89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6784,11 +6696,10 @@
         <v>0.98395568132400513</v>
       </c>
       <c r="D90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E90">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F90">
@@ -6806,11 +6717,10 @@
         <v>3.9176873862743378E-2</v>
       </c>
       <c r="D91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6825,11 +6735,10 @@
         <v>1.3838923536241049E-2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6844,11 +6753,10 @@
         <v>1.3842053711414341E-2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6863,11 +6771,10 @@
         <v>0.91534560918807983</v>
       </c>
       <c r="D94">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E94">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F94">
@@ -6885,11 +6792,10 @@
         <v>0.98538500070571899</v>
       </c>
       <c r="D95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E95">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F95">
@@ -6907,11 +6813,10 @@
         <v>1.448572054505348E-2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6926,11 +6831,10 @@
         <v>1.4475894160568711E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6945,11 +6849,10 @@
         <v>1.64866279810667E-2</v>
       </c>
       <c r="D98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6964,11 +6867,10 @@
         <v>1.490499079227448E-2</v>
       </c>
       <c r="D99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6983,11 +6885,10 @@
         <v>1.3847821392118931E-2</v>
       </c>
       <c r="D100">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7002,11 +6903,10 @@
         <v>1.4429653063416479E-2</v>
       </c>
       <c r="D101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7021,11 +6921,10 @@
         <v>1.357562839984894E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7040,11 +6939,10 @@
         <v>1.409239042550325E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7059,11 +6957,10 @@
         <v>0.98546206951141357</v>
       </c>
       <c r="D104">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7078,11 +6975,10 @@
         <v>0.32162356376647949</v>
       </c>
       <c r="D105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7097,11 +6993,10 @@
         <v>1.3894987292587761E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7116,11 +7011,10 @@
         <v>2.5084102526307109E-2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7135,11 +7029,10 @@
         <v>1.405890006572008E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7154,11 +7047,10 @@
         <v>0.98548293113708496</v>
       </c>
       <c r="D109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E109">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7173,11 +7065,10 @@
         <v>0.97700387239456177</v>
       </c>
       <c r="D110">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E110">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7192,11 +7083,10 @@
         <v>1.403815392404795E-2</v>
       </c>
       <c r="D111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E111">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7211,11 +7101,10 @@
         <v>0.13731823861598971</v>
       </c>
       <c r="D112">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E112">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7230,11 +7119,10 @@
         <v>1.468401309102774E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7249,11 +7137,10 @@
         <v>0.98001110553741455</v>
       </c>
       <c r="D114">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E114">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7268,11 +7155,10 @@
         <v>1.687676832079887E-2</v>
       </c>
       <c r="D115">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7287,11 +7173,10 @@
         <v>1.5345701947808269E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7306,11 +7191,10 @@
         <v>0.98547643423080444</v>
       </c>
       <c r="D117">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E117">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7325,11 +7209,10 @@
         <v>2.4780275300145149E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7344,11 +7227,10 @@
         <v>1.885966025292873E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7363,11 +7245,10 @@
         <v>1.3873175717890259E-2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E120">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7382,11 +7263,10 @@
         <v>0.50507611036300659</v>
       </c>
       <c r="D121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E121">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F121">
@@ -7404,11 +7284,10 @@
         <v>0.98546302318572998</v>
       </c>
       <c r="D122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E122">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7423,11 +7302,10 @@
         <v>1.9018774852156639E-2</v>
       </c>
       <c r="D123">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7442,11 +7320,10 @@
         <v>1.4924418181180951E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7461,11 +7338,10 @@
         <v>2.0978128537535671E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7480,11 +7356,10 @@
         <v>1.3763910159468651E-2</v>
       </c>
       <c r="D126">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E126">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7499,11 +7374,10 @@
         <v>1.370281167328358E-2</v>
       </c>
       <c r="D127">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7518,11 +7392,10 @@
         <v>1.3646889477968219E-2</v>
       </c>
       <c r="D128">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7537,11 +7410,10 @@
         <v>8.8598392903804779E-2</v>
       </c>
       <c r="D129">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7556,11 +7428,10 @@
         <v>2.8174605220556259E-2</v>
       </c>
       <c r="D130">
-        <f t="shared" ref="D130:D193" si="2">IF(C130&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D130:D193" si="3">IF(C130&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7575,11 +7446,10 @@
         <v>1.4257164672017099E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="3">IF(ISBLANK(F131),D131,F131)</f>
         <v>0</v>
       </c>
     </row>
@@ -7594,11 +7464,10 @@
         <v>0.98162096738815308</v>
       </c>
       <c r="D132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E132">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7613,11 +7482,10 @@
         <v>0.98547887802124023</v>
       </c>
       <c r="D133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E133">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F133">
@@ -7635,11 +7503,10 @@
         <v>1.393722463399172E-2</v>
       </c>
       <c r="D134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E134">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7654,11 +7521,10 @@
         <v>1.394962146878242E-2</v>
       </c>
       <c r="D135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7673,11 +7539,10 @@
         <v>1.385747548192739E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7692,11 +7557,10 @@
         <v>1.510409079492092E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7711,11 +7575,10 @@
         <v>1.4800244010984899E-2</v>
       </c>
       <c r="D138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7730,11 +7593,10 @@
         <v>1.393394265323877E-2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7749,11 +7611,10 @@
         <v>1.374667044728994E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7768,11 +7629,10 @@
         <v>0.98107188940048218</v>
       </c>
       <c r="D141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E141">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7787,11 +7647,10 @@
         <v>1.368947047740221E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7806,11 +7665,10 @@
         <v>1.407477911561728E-2</v>
       </c>
       <c r="D143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E143">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7825,11 +7683,10 @@
         <v>2.431395277380943E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7844,11 +7701,10 @@
         <v>5.1430121064186103E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7863,11 +7719,10 @@
         <v>1.363194826990366E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7882,11 +7737,10 @@
         <v>1.379540283232927E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E147">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7901,11 +7755,10 @@
         <v>1.377992611378431E-2</v>
       </c>
       <c r="D148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7920,11 +7773,10 @@
         <v>1.357369404286146E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7939,11 +7791,10 @@
         <v>1.420896779745817E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7958,11 +7809,10 @@
         <v>1.380046457052231E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7977,11 +7827,10 @@
         <v>1.382981613278389E-2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7996,11 +7845,10 @@
         <v>2.185627818107605E-2</v>
       </c>
       <c r="D153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8015,11 +7863,10 @@
         <v>1.3728903606534001E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8034,11 +7881,10 @@
         <v>1.383978221565485E-2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8053,11 +7899,10 @@
         <v>1.42599530518055E-2</v>
       </c>
       <c r="D156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8072,11 +7917,10 @@
         <v>1.492624823004007E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8091,11 +7935,10 @@
         <v>3.4463401883840561E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8110,11 +7953,10 @@
         <v>1.377221010625362E-2</v>
       </c>
       <c r="D159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E159">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8129,11 +7971,10 @@
         <v>0.98419445753097534</v>
       </c>
       <c r="D160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E160">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F160">
@@ -8151,11 +7992,10 @@
         <v>3.4344691783189767E-2</v>
       </c>
       <c r="D161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E161">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8170,11 +8010,10 @@
         <v>3.1292334198951721E-2</v>
       </c>
       <c r="D162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E162">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8189,11 +8028,10 @@
         <v>1.781449839472771E-2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E163">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8208,11 +8046,10 @@
         <v>1.5019204467535021E-2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8227,11 +8064,10 @@
         <v>1.3918580487370489E-2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8246,11 +8082,10 @@
         <v>0.98499608039855957</v>
       </c>
       <c r="D166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E166">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F166">
@@ -8268,11 +8103,10 @@
         <v>1.3823964633047581E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8287,11 +8121,10 @@
         <v>1.4655176550149919E-2</v>
       </c>
       <c r="D168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8306,11 +8139,10 @@
         <v>1.392714399844408E-2</v>
       </c>
       <c r="D169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8325,11 +8157,10 @@
         <v>1.9487889483571049E-2</v>
       </c>
       <c r="D170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E170">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8344,11 +8175,10 @@
         <v>1.391118764877319E-2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E171">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8363,11 +8193,10 @@
         <v>1.7517499625682831E-2</v>
       </c>
       <c r="D172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8382,11 +8211,10 @@
         <v>1.3782571069896219E-2</v>
       </c>
       <c r="D173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E173">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8401,11 +8229,10 @@
         <v>6.1829987913370132E-2</v>
       </c>
       <c r="D174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E174">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8420,11 +8247,10 @@
         <v>1.400174293667078E-2</v>
       </c>
       <c r="D175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8439,11 +8265,10 @@
         <v>1.389722805470228E-2</v>
       </c>
       <c r="D176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8458,11 +8283,10 @@
         <v>1.385053712874651E-2</v>
       </c>
       <c r="D177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E177">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8477,11 +8301,10 @@
         <v>2.385596185922623E-2</v>
       </c>
       <c r="D178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8496,11 +8319,10 @@
         <v>1.386942435055971E-2</v>
       </c>
       <c r="D179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E179">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8515,11 +8337,10 @@
         <v>1.383860502392054E-2</v>
       </c>
       <c r="D180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8534,11 +8355,10 @@
         <v>1.9476806744933128E-2</v>
       </c>
       <c r="D181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8553,11 +8373,10 @@
         <v>1.542789861559868E-2</v>
       </c>
       <c r="D182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E182">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8572,11 +8391,10 @@
         <v>1.4206115156412119E-2</v>
       </c>
       <c r="D183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E183">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8591,11 +8409,10 @@
         <v>1.3686651363968849E-2</v>
       </c>
       <c r="D184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E184">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8610,11 +8427,10 @@
         <v>1.364851929247379E-2</v>
       </c>
       <c r="D185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E185">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8629,11 +8445,10 @@
         <v>2.125003561377525E-2</v>
       </c>
       <c r="D186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E186">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8648,11 +8463,10 @@
         <v>0.98499000072479248</v>
       </c>
       <c r="D187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E187">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8667,11 +8481,10 @@
         <v>1.35863283649087E-2</v>
       </c>
       <c r="D188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E188">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8686,11 +8499,10 @@
         <v>0.9854741096496582</v>
       </c>
       <c r="D189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E189">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8705,11 +8517,10 @@
         <v>1.6421591863036159E-2</v>
       </c>
       <c r="D190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E190">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8724,11 +8535,10 @@
         <v>1.450648996978998E-2</v>
       </c>
       <c r="D191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E191">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8743,11 +8553,10 @@
         <v>0.90429073572158813</v>
       </c>
       <c r="D192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E192">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8762,11 +8571,10 @@
         <v>4.6500794589519501E-2</v>
       </c>
       <c r="D193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8785,7 +8593,6 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8804,7 +8611,6 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="5">IF(ISBLANK(F195),D195,F195)</f>
         <v>0</v>
       </c>
     </row>
@@ -8823,7 +8629,6 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8842,7 +8647,6 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8861,7 +8665,6 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8880,7 +8683,6 @@
         <v>1</v>
       </c>
       <c r="E199">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8899,7 +8701,6 @@
         <v>1</v>
       </c>
       <c r="E200">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8918,7 +8719,6 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8937,7 +8737,6 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8956,7 +8755,6 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8975,7 +8773,6 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8994,7 +8791,6 @@
         <v>0</v>
       </c>
       <c r="E205">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9013,7 +8809,6 @@
         <v>1</v>
       </c>
       <c r="E206">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9032,7 +8827,6 @@
         <v>1</v>
       </c>
       <c r="E207">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9051,7 +8845,6 @@
         <v>0</v>
       </c>
       <c r="E208">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9070,7 +8863,6 @@
         <v>1</v>
       </c>
       <c r="E209">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9089,7 +8881,6 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9108,7 +8899,6 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9127,7 +8917,6 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9146,7 +8935,6 @@
         <v>0</v>
       </c>
       <c r="E213">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9165,7 +8953,6 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9184,7 +8971,6 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9203,7 +8989,6 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9222,7 +9007,6 @@
         <v>1</v>
       </c>
       <c r="E217">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9241,7 +9025,6 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9260,7 +9043,6 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9279,7 +9061,6 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9298,7 +9079,6 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9317,7 +9097,6 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9336,7 +9115,6 @@
         <v>0</v>
       </c>
       <c r="E223">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9355,7 +9133,6 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9374,7 +9151,6 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9393,7 +9169,6 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9412,7 +9187,6 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9431,7 +9205,6 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9450,7 +9223,6 @@
         <v>1</v>
       </c>
       <c r="E229">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F229">
@@ -9472,7 +9244,6 @@
         <v>0</v>
       </c>
       <c r="E230">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9491,7 +9262,6 @@
         <v>0</v>
       </c>
       <c r="E231">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9510,7 +9280,6 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9529,7 +9298,6 @@
         <v>0</v>
       </c>
       <c r="E233">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9548,7 +9316,6 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9567,7 +9334,6 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9586,7 +9352,6 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9605,7 +9370,6 @@
         <v>0</v>
       </c>
       <c r="E237">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9624,7 +9388,6 @@
         <v>0</v>
       </c>
       <c r="E238">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9643,7 +9406,6 @@
         <v>0</v>
       </c>
       <c r="E239">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9662,7 +9424,6 @@
         <v>0</v>
       </c>
       <c r="E240">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9681,7 +9442,6 @@
         <v>0</v>
       </c>
       <c r="E241">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9700,7 +9460,6 @@
         <v>0</v>
       </c>
       <c r="E242">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9719,7 +9478,6 @@
         <v>1</v>
       </c>
       <c r="E243">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9738,7 +9496,6 @@
         <v>0</v>
       </c>
       <c r="E244">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9757,7 +9514,6 @@
         <v>0</v>
       </c>
       <c r="E245">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9776,7 +9532,6 @@
         <v>1</v>
       </c>
       <c r="E246">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F246">
@@ -9798,7 +9553,6 @@
         <v>0</v>
       </c>
       <c r="E247">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9817,7 +9571,6 @@
         <v>0</v>
       </c>
       <c r="E248">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9836,7 +9589,6 @@
         <v>0</v>
       </c>
       <c r="E249">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9855,7 +9607,6 @@
         <v>0</v>
       </c>
       <c r="E250">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9874,7 +9625,6 @@
         <v>0</v>
       </c>
       <c r="E251">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9893,7 +9643,6 @@
         <v>0</v>
       </c>
       <c r="E252">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9912,7 +9661,6 @@
         <v>1</v>
       </c>
       <c r="E253">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F253">
@@ -9934,7 +9682,6 @@
         <v>0</v>
       </c>
       <c r="E254">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9953,7 +9700,6 @@
         <v>1</v>
       </c>
       <c r="E255">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F255">
@@ -9975,7 +9721,6 @@
         <v>0</v>
       </c>
       <c r="E256">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9994,7 +9739,6 @@
         <v>0</v>
       </c>
       <c r="E257">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10009,11 +9753,10 @@
         <v>0.14785914123058319</v>
       </c>
       <c r="D258">
-        <f t="shared" ref="D258:D321" si="6">IF(C258&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D258:D321" si="5">IF(C258&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E258">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10028,11 +9771,10 @@
         <v>0.98533499240875244</v>
       </c>
       <c r="D259">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="7">IF(ISBLANK(F259),D259,F259)</f>
         <v>0</v>
       </c>
       <c r="F259">
@@ -10050,11 +9792,10 @@
         <v>7.8880399465560913E-2</v>
       </c>
       <c r="D260">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E260">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10069,11 +9810,10 @@
         <v>1.531996484845877E-2</v>
       </c>
       <c r="D261">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E261">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10088,11 +9828,10 @@
         <v>0.86902672052383423</v>
       </c>
       <c r="D262">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E262">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F262">
@@ -10110,11 +9849,10 @@
         <v>0.77692300081253052</v>
       </c>
       <c r="D263">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E263">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10129,11 +9867,10 @@
         <v>0.98548316955566406</v>
       </c>
       <c r="D264">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E264">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10148,11 +9885,10 @@
         <v>0.98548024892807007</v>
       </c>
       <c r="D265">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E265">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10167,11 +9903,10 @@
         <v>1.3735858723521229E-2</v>
       </c>
       <c r="D266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E266">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10186,11 +9921,10 @@
         <v>1.3718679547309881E-2</v>
       </c>
       <c r="D267">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E267">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10205,11 +9939,10 @@
         <v>0.98535746335983276</v>
       </c>
       <c r="D268">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E268">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10224,11 +9957,10 @@
         <v>1.3675623573362831E-2</v>
       </c>
       <c r="D269">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E269">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10243,11 +9975,10 @@
         <v>1.389015279710293E-2</v>
       </c>
       <c r="D270">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E270">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10262,11 +9993,10 @@
         <v>4.2511768639087677E-2</v>
       </c>
       <c r="D271">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E271">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10281,11 +10011,10 @@
         <v>0.9501844048500061</v>
       </c>
       <c r="D272">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E272">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10300,11 +10029,10 @@
         <v>0.21742956340312961</v>
       </c>
       <c r="D273">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E273">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10319,11 +10047,10 @@
         <v>1.411989703774452E-2</v>
       </c>
       <c r="D274">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E274">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10338,11 +10065,10 @@
         <v>0.1100489497184753</v>
       </c>
       <c r="D275">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10357,11 +10083,10 @@
         <v>0.5192686915397644</v>
       </c>
       <c r="D276">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E276">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10376,11 +10101,10 @@
         <v>0.98533463478088379</v>
       </c>
       <c r="D277">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E277">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F277">
@@ -10398,11 +10122,10 @@
         <v>0.98152703046798706</v>
       </c>
       <c r="D278">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E278">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F278">
@@ -10420,11 +10143,10 @@
         <v>0.97777962684631348</v>
       </c>
       <c r="D279">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E279">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10439,11 +10161,10 @@
         <v>1.3885791413486E-2</v>
       </c>
       <c r="D280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E280">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10458,11 +10179,10 @@
         <v>3.4488845616579063E-2</v>
       </c>
       <c r="D281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E281">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10477,11 +10197,10 @@
         <v>5.2699953317642212E-2</v>
       </c>
       <c r="D282">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E282">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10496,11 +10215,10 @@
         <v>0.98368465900421143</v>
       </c>
       <c r="D283">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E283">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10515,11 +10233,10 @@
         <v>3.7899520248174667E-2</v>
       </c>
       <c r="D284">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E284">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10534,11 +10251,10 @@
         <v>4.0545281022787087E-2</v>
       </c>
       <c r="D285">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E285">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10553,11 +10269,10 @@
         <v>0.98542201519012451</v>
       </c>
       <c r="D286">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E286">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F286">
@@ -10575,11 +10290,10 @@
         <v>0.98548245429992676</v>
       </c>
       <c r="D287">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E287">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F287">
@@ -10597,11 +10311,10 @@
         <v>0.98542952537536621</v>
       </c>
       <c r="D288">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E288">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10616,11 +10329,10 @@
         <v>1.387876830995083E-2</v>
       </c>
       <c r="D289">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E289">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10635,11 +10347,10 @@
         <v>0.98526102304458618</v>
       </c>
       <c r="D290">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E290">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10654,11 +10365,10 @@
         <v>0.21763916313648221</v>
       </c>
       <c r="D291">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E291">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10673,11 +10383,10 @@
         <v>0.21745273470878601</v>
       </c>
       <c r="D292">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E292">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10692,11 +10401,10 @@
         <v>1.3724152930080891E-2</v>
       </c>
       <c r="D293">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E293">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10711,11 +10419,10 @@
         <v>4.1741196066141129E-2</v>
       </c>
       <c r="D294">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E294">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10730,11 +10437,10 @@
         <v>0.1687909513711929</v>
       </c>
       <c r="D295">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E295">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10749,11 +10455,10 @@
         <v>1.356938574463129E-2</v>
       </c>
       <c r="D296">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E296">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10768,11 +10473,10 @@
         <v>1.363689266145229E-2</v>
       </c>
       <c r="D297">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E297">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10787,11 +10491,10 @@
         <v>1.3684875331819059E-2</v>
       </c>
       <c r="D298">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10806,11 +10509,10 @@
         <v>0.21763809025287631</v>
       </c>
       <c r="D299">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10825,11 +10527,10 @@
         <v>1.3738894835114481E-2</v>
       </c>
       <c r="D300">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E300">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10844,11 +10545,10 @@
         <v>1.3800199143588539E-2</v>
       </c>
       <c r="D301">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E301">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10863,11 +10563,10 @@
         <v>1.367224100977182E-2</v>
       </c>
       <c r="D302">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E302">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10882,11 +10581,10 @@
         <v>1.3774426653981211E-2</v>
       </c>
       <c r="D303">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E303">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10901,11 +10599,10 @@
         <v>2.1111804991960529E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10920,11 +10617,10 @@
         <v>1.3865930028259751E-2</v>
       </c>
       <c r="D305">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10939,11 +10635,10 @@
         <v>1.375875808298588E-2</v>
       </c>
       <c r="D306">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E306">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10958,11 +10653,10 @@
         <v>1.3918423093855379E-2</v>
       </c>
       <c r="D307">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E307">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10977,11 +10671,10 @@
         <v>0.98537307977676392</v>
       </c>
       <c r="D308">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E308">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10996,11 +10689,10 @@
         <v>0.98528069257736206</v>
       </c>
       <c r="D309">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E309">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11015,11 +10707,10 @@
         <v>1.3624647632241251E-2</v>
       </c>
       <c r="D310">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E310">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11034,11 +10725,10 @@
         <v>0.71318507194519043</v>
       </c>
       <c r="D311">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E311">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11053,11 +10743,10 @@
         <v>1.4367721974849699E-2</v>
       </c>
       <c r="D312">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E312">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11072,11 +10761,10 @@
         <v>1.373651809990406E-2</v>
       </c>
       <c r="D313">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E313">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11091,11 +10779,10 @@
         <v>1.364107523113489E-2</v>
       </c>
       <c r="D314">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E314">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11110,11 +10797,10 @@
         <v>2.2187940776348111E-2</v>
       </c>
       <c r="D315">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E315">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11129,11 +10815,10 @@
         <v>1.5324641950428489E-2</v>
       </c>
       <c r="D316">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E316">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11148,11 +10833,10 @@
         <v>1.734584383666515E-2</v>
       </c>
       <c r="D317">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E317">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11167,11 +10851,10 @@
         <v>1.3641492463648319E-2</v>
       </c>
       <c r="D318">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E318">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11186,11 +10869,10 @@
         <v>1.3598040677607059E-2</v>
       </c>
       <c r="D319">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E319">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11205,11 +10887,10 @@
         <v>3.4066792577505112E-2</v>
       </c>
       <c r="D320">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E320">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11224,11 +10905,10 @@
         <v>1.3680704869329929E-2</v>
       </c>
       <c r="D321">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E321">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11243,11 +10923,10 @@
         <v>1.476912200450897E-2</v>
       </c>
       <c r="D322">
-        <f t="shared" ref="D322:D385" si="8">IF(C322&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D322:D385" si="6">IF(C322&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E322">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11262,11 +10941,10 @@
         <v>1.3572487980127329E-2</v>
       </c>
       <c r="D323">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="9">IF(ISBLANK(F323),D323,F323)</f>
         <v>0</v>
       </c>
     </row>
@@ -11281,11 +10959,10 @@
         <v>1.4230731874704359E-2</v>
       </c>
       <c r="D324">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E324">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11300,11 +10977,10 @@
         <v>0.21739733219146731</v>
       </c>
       <c r="D325">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E325">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11319,11 +10995,10 @@
         <v>1.39493066817522E-2</v>
       </c>
       <c r="D326">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E326">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11338,11 +11013,10 @@
         <v>1.3675848953425881E-2</v>
       </c>
       <c r="D327">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E327">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11357,11 +11031,10 @@
         <v>1.4010178856551651E-2</v>
       </c>
       <c r="D328">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E328">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11376,11 +11049,10 @@
         <v>1.361639052629471E-2</v>
       </c>
       <c r="D329">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E329">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11395,11 +11067,10 @@
         <v>2.9008373618125919E-2</v>
       </c>
       <c r="D330">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E330">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11414,11 +11085,10 @@
         <v>1.356032490730286E-2</v>
       </c>
       <c r="D331">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E331">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11433,11 +11103,10 @@
         <v>1.370169036090374E-2</v>
       </c>
       <c r="D332">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11452,11 +11121,10 @@
         <v>1.3680350966751581E-2</v>
       </c>
       <c r="D333">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E333">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11471,11 +11139,10 @@
         <v>1.366906985640526E-2</v>
       </c>
       <c r="D334">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E334">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11490,11 +11157,10 @@
         <v>1.3807461597025389E-2</v>
       </c>
       <c r="D335">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E335">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11509,11 +11175,10 @@
         <v>0.98523432016372681</v>
       </c>
       <c r="D336">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E336">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F336">
@@ -11531,11 +11196,10 @@
         <v>0.24146872758865359</v>
       </c>
       <c r="D337">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E337">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11550,11 +11214,10 @@
         <v>0.21745273470878601</v>
       </c>
       <c r="D338">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E338">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11569,11 +11232,10 @@
         <v>1.4104087837040419E-2</v>
       </c>
       <c r="D339">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E339">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11588,11 +11250,10 @@
         <v>1.4441614039242269E-2</v>
       </c>
       <c r="D340">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E340">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11607,11 +11268,10 @@
         <v>1.377509348094463E-2</v>
       </c>
       <c r="D341">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E341">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11626,11 +11286,10 @@
         <v>3.9002444595098502E-2</v>
       </c>
       <c r="D342">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E342">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11645,11 +11304,10 @@
         <v>1.373457349836826E-2</v>
       </c>
       <c r="D343">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E343">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11664,11 +11322,10 @@
         <v>1.3675115071237091E-2</v>
       </c>
       <c r="D344">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11683,11 +11340,10 @@
         <v>1.376465521752834E-2</v>
       </c>
       <c r="D345">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E345">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11702,11 +11358,10 @@
         <v>2.9883222654461861E-2</v>
       </c>
       <c r="D346">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E346">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11721,11 +11376,10 @@
         <v>1.5557196922600269E-2</v>
       </c>
       <c r="D347">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E347">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11740,11 +11394,10 @@
         <v>1.37184476479888E-2</v>
       </c>
       <c r="D348">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E348">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11759,11 +11412,10 @@
         <v>2.482575923204422E-2</v>
       </c>
       <c r="D349">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E349">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11778,11 +11430,10 @@
         <v>1.362900529056787E-2</v>
       </c>
       <c r="D350">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E350">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11797,11 +11448,10 @@
         <v>1.358549762517214E-2</v>
       </c>
       <c r="D351">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E351">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11816,11 +11466,10 @@
         <v>1.7698664218187329E-2</v>
       </c>
       <c r="D352">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E352">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11835,11 +11484,10 @@
         <v>1.595348492264748E-2</v>
       </c>
       <c r="D353">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E353">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11854,11 +11502,10 @@
         <v>1.3837999664247039E-2</v>
       </c>
       <c r="D354">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E354">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11873,11 +11520,10 @@
         <v>1.358549762517214E-2</v>
       </c>
       <c r="D355">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E355">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11892,11 +11538,10 @@
         <v>1.3782434165477749E-2</v>
       </c>
       <c r="D356">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E356">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11911,11 +11556,10 @@
         <v>0.98440289497375488</v>
       </c>
       <c r="D357">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E357">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F357">
@@ -11933,11 +11577,10 @@
         <v>1.503629330545664E-2</v>
       </c>
       <c r="D358">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E358">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11952,11 +11595,10 @@
         <v>2.608034759759903E-2</v>
       </c>
       <c r="D359">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E359">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11971,11 +11613,10 @@
         <v>0.98547935485839844</v>
       </c>
       <c r="D360">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E360">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -11990,11 +11631,10 @@
         <v>2.0466862246394161E-2</v>
       </c>
       <c r="D361">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E361">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12009,11 +11649,10 @@
         <v>5.5745784193277359E-2</v>
       </c>
       <c r="D362">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12028,11 +11667,10 @@
         <v>1.8823632970452309E-2</v>
       </c>
       <c r="D363">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E363">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12047,11 +11685,10 @@
         <v>1.4822816476225849E-2</v>
       </c>
       <c r="D364">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E364">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12066,11 +11703,10 @@
         <v>1.373586617410183E-2</v>
       </c>
       <c r="D365">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12085,11 +11721,10 @@
         <v>0.94214296340942383</v>
       </c>
       <c r="D366">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E366">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F366">
@@ -12107,11 +11742,10 @@
         <v>1.3581313192844389E-2</v>
       </c>
       <c r="D367">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E367">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12126,11 +11760,10 @@
         <v>0.98547422885894775</v>
       </c>
       <c r="D368">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E368">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -12145,11 +11778,10 @@
         <v>0.98547792434692383</v>
       </c>
       <c r="D369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E369">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -12164,11 +11796,10 @@
         <v>0.98545712232589722</v>
       </c>
       <c r="D370">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E370">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -12183,11 +11814,10 @@
         <v>1.3716493733227249E-2</v>
       </c>
       <c r="D371">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E371">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12202,11 +11832,10 @@
         <v>0.98540318012237549</v>
       </c>
       <c r="D372">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E372">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F372">
@@ -12224,11 +11853,10 @@
         <v>4.08000648021698E-2</v>
       </c>
       <c r="D373">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E373">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12243,11 +11871,10 @@
         <v>0.9652104377746582</v>
       </c>
       <c r="D374">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E374">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F374">
@@ -12265,11 +11892,10 @@
         <v>1.476292684674263E-2</v>
       </c>
       <c r="D375">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E375">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12284,11 +11910,10 @@
         <v>1.762847043573856E-2</v>
       </c>
       <c r="D376">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E376">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12303,11 +11928,10 @@
         <v>3.0175106599926949E-2</v>
       </c>
       <c r="D377">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12322,11 +11946,10 @@
         <v>4.9136918038129813E-2</v>
       </c>
       <c r="D378">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E378">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12341,11 +11964,10 @@
         <v>1.3710166327655321E-2</v>
       </c>
       <c r="D379">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12360,11 +11982,10 @@
         <v>0.98546183109283447</v>
       </c>
       <c r="D380">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E380">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F380">
@@ -12382,11 +12003,10 @@
         <v>0.98548418283462524</v>
       </c>
       <c r="D381">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E381">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -12401,11 +12021,10 @@
         <v>1.3875355012714859E-2</v>
       </c>
       <c r="D382">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12420,11 +12039,10 @@
         <v>4.9997683614492423E-2</v>
       </c>
       <c r="D383">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E383">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12439,11 +12057,10 @@
         <v>1.531982887536287E-2</v>
       </c>
       <c r="D384">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12458,11 +12075,10 @@
         <v>1.50231784209609E-2</v>
       </c>
       <c r="D385">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E385">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12477,11 +12093,10 @@
         <v>1.3821630738675591E-2</v>
       </c>
       <c r="D386">
-        <f t="shared" ref="D386:D449" si="10">IF(C386&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D386:D449" si="7">IF(C386&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E386">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12496,11 +12111,10 @@
         <v>0.98525816202163696</v>
       </c>
       <c r="D387">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="11">IF(ISBLANK(F387),D387,F387)</f>
         <v>0</v>
       </c>
       <c r="F387">
@@ -12518,11 +12132,10 @@
         <v>0.88117527961730957</v>
       </c>
       <c r="D388">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E388">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F388">
@@ -12540,11 +12153,10 @@
         <v>1.4466877095401291E-2</v>
       </c>
       <c r="D389">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E389">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12559,11 +12171,10 @@
         <v>1.4276194386184221E-2</v>
       </c>
       <c r="D390">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E390">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12578,11 +12189,10 @@
         <v>1.423484645783901E-2</v>
       </c>
       <c r="D391">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E391">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12597,11 +12207,10 @@
         <v>1.4170766808092591E-2</v>
       </c>
       <c r="D392">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E392">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12616,11 +12225,10 @@
         <v>1.5529033727943901E-2</v>
       </c>
       <c r="D393">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E393">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12635,11 +12243,10 @@
         <v>1.374487951397896E-2</v>
       </c>
       <c r="D394">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E394">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12654,11 +12261,10 @@
         <v>1.4156598597764971E-2</v>
       </c>
       <c r="D395">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E395">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12673,11 +12279,10 @@
         <v>5.7588037103414542E-2</v>
       </c>
       <c r="D396">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E396">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12692,11 +12297,10 @@
         <v>1.3954181224107741E-2</v>
       </c>
       <c r="D397">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E397">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12711,11 +12315,10 @@
         <v>0.98398894071578979</v>
       </c>
       <c r="D398">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E398">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F398">
@@ -12733,11 +12336,10 @@
         <v>0.9152531623840332</v>
       </c>
       <c r="D399">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E399">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F399">
@@ -12755,11 +12357,10 @@
         <v>4.0706954896450043E-2</v>
       </c>
       <c r="D400">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12774,11 +12375,10 @@
         <v>0.97790992259979248</v>
       </c>
       <c r="D401">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E401">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F401">
@@ -12796,11 +12396,10 @@
         <v>0.98545318841934204</v>
       </c>
       <c r="D402">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E402">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -12815,11 +12414,10 @@
         <v>0.98548316955566406</v>
       </c>
       <c r="D403">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E403">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -12834,11 +12432,10 @@
         <v>0.985443115234375</v>
       </c>
       <c r="D404">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E404">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -12853,11 +12450,10 @@
         <v>0.98537975549697876</v>
       </c>
       <c r="D405">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E405">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -12872,11 +12468,10 @@
         <v>1.3841617852449421E-2</v>
       </c>
       <c r="D406">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E406">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12891,11 +12486,10 @@
         <v>1.654019579291344E-2</v>
       </c>
       <c r="D407">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E407">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12910,11 +12504,10 @@
         <v>1.6206620261073109E-2</v>
       </c>
       <c r="D408">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E408">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12929,11 +12522,10 @@
         <v>4.4798590242862701E-2</v>
       </c>
       <c r="D409">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E409">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12948,11 +12540,10 @@
         <v>1.38813117519021E-2</v>
       </c>
       <c r="D410">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E410">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12967,11 +12558,10 @@
         <v>0.98546230792999268</v>
       </c>
       <c r="D411">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E411">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -12986,11 +12576,10 @@
         <v>1.3602615334093571E-2</v>
       </c>
       <c r="D412">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E412">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13005,11 +12594,10 @@
         <v>1.3637354597449299E-2</v>
       </c>
       <c r="D413">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E413">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13024,11 +12612,10 @@
         <v>0.98470449447631836</v>
       </c>
       <c r="D414">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E414">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -13043,11 +12630,10 @@
         <v>1.6369324177503589E-2</v>
       </c>
       <c r="D415">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E415">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13062,11 +12648,10 @@
         <v>1.9524496048688889E-2</v>
       </c>
       <c r="D416">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E416">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13081,11 +12666,10 @@
         <v>0.97803747653961182</v>
       </c>
       <c r="D417">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E417">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F417">
@@ -13103,11 +12687,10 @@
         <v>2.0169185474514961E-2</v>
       </c>
       <c r="D418">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E418">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13122,11 +12705,10 @@
         <v>0.98546969890594482</v>
       </c>
       <c r="D419">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E419">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -13141,11 +12723,10 @@
         <v>4.7951582819223397E-2</v>
       </c>
       <c r="D420">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E420">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13160,11 +12741,10 @@
         <v>1.367267686873674E-2</v>
       </c>
       <c r="D421">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13179,11 +12759,10 @@
         <v>7.8676402568817139E-2</v>
       </c>
       <c r="D422">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E422">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13198,11 +12777,10 @@
         <v>1.4038656838238239E-2</v>
       </c>
       <c r="D423">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E423">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13217,11 +12795,10 @@
         <v>0.98543941974639893</v>
       </c>
       <c r="D424">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E424">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F424">
@@ -13239,11 +12816,10 @@
         <v>0.93006277084350586</v>
       </c>
       <c r="D425">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E425">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F425">
@@ -13261,11 +12837,10 @@
         <v>0.21748475730419159</v>
       </c>
       <c r="D426">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E426">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13280,11 +12855,10 @@
         <v>1.384031027555466E-2</v>
       </c>
       <c r="D427">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E427">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13299,11 +12873,10 @@
         <v>1.434097997844219E-2</v>
       </c>
       <c r="D428">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E428">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13318,11 +12891,10 @@
         <v>1.730698719620705E-2</v>
       </c>
       <c r="D429">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E429">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13337,11 +12909,10 @@
         <v>1.4164154417812821E-2</v>
       </c>
       <c r="D430">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E430">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13356,11 +12927,10 @@
         <v>1.620052382349968E-2</v>
       </c>
       <c r="D431">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E431">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13375,11 +12945,10 @@
         <v>0.98464834690093994</v>
       </c>
       <c r="D432">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E432">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F432">
@@ -13397,11 +12966,10 @@
         <v>1.392798125743866E-2</v>
       </c>
       <c r="D433">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E433">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13416,11 +12984,10 @@
         <v>2.892286516726017E-2</v>
       </c>
       <c r="D434">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E434">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13435,11 +13002,10 @@
         <v>0.98548352718353271</v>
       </c>
       <c r="D435">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E435">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -13454,11 +13020,10 @@
         <v>1.3680183328688139E-2</v>
       </c>
       <c r="D436">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E436">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13473,11 +13038,10 @@
         <v>0.92768055200576782</v>
       </c>
       <c r="D437">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E437">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F437">
@@ -13495,11 +13059,10 @@
         <v>1.3569965958595279E-2</v>
       </c>
       <c r="D438">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E438">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13514,11 +13077,10 @@
         <v>0.98544543981552124</v>
       </c>
       <c r="D439">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E439">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -13533,11 +13095,10 @@
         <v>1.3990490697324279E-2</v>
       </c>
       <c r="D440">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E440">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13552,11 +13113,10 @@
         <v>2.0298102870583531E-2</v>
       </c>
       <c r="D441">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E441">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13571,11 +13131,10 @@
         <v>1.439772080630064E-2</v>
       </c>
       <c r="D442">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E442">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13590,11 +13149,10 @@
         <v>1.383325085043907E-2</v>
       </c>
       <c r="D443">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E443">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13609,11 +13167,10 @@
         <v>1.3848342932760721E-2</v>
       </c>
       <c r="D444">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13628,11 +13185,10 @@
         <v>1.395613607019186E-2</v>
       </c>
       <c r="D445">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E445">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13647,11 +13203,10 @@
         <v>1.3595713302493101E-2</v>
       </c>
       <c r="D446">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E446">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13666,11 +13221,10 @@
         <v>0.97693949937820435</v>
       </c>
       <c r="D447">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E447">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F447">
@@ -13688,11 +13242,10 @@
         <v>0.88521212339401245</v>
       </c>
       <c r="D448">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E448">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F448">
@@ -13710,11 +13263,10 @@
         <v>7.5635485351085663E-2</v>
       </c>
       <c r="D449">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E449">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13729,11 +13281,10 @@
         <v>1.5754608437418941E-2</v>
       </c>
       <c r="D450">
-        <f t="shared" ref="D450:D513" si="12">IF(C450&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D450:D513" si="8">IF(C450&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E450">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13748,11 +13299,10 @@
         <v>1.402859576046467E-2</v>
       </c>
       <c r="D451">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="E451:E514" si="13">IF(ISBLANK(F451),D451,F451)</f>
         <v>0</v>
       </c>
     </row>
@@ -13767,11 +13317,10 @@
         <v>2.307048253715038E-2</v>
       </c>
       <c r="D452">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E452">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13786,11 +13335,10 @@
         <v>1.437687501311302E-2</v>
       </c>
       <c r="D453">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E453">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13805,11 +13353,10 @@
         <v>1.370246987789869E-2</v>
       </c>
       <c r="D454">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E454">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13824,11 +13371,10 @@
         <v>1.400284841656685E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13843,11 +13389,10 @@
         <v>1.36929415166378E-2</v>
       </c>
       <c r="D456">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E456">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13862,11 +13407,10 @@
         <v>0.97161203622817993</v>
       </c>
       <c r="D457">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E457">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -13881,11 +13425,10 @@
         <v>2.400947734713554E-2</v>
       </c>
       <c r="D458">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E458">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13900,11 +13443,10 @@
         <v>1.3980614021420481E-2</v>
       </c>
       <c r="D459">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E459">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13919,11 +13461,10 @@
         <v>1.382482144981623E-2</v>
       </c>
       <c r="D460">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E460">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13938,11 +13479,10 @@
         <v>1.7016515135765079E-2</v>
       </c>
       <c r="D461">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E461">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13957,11 +13497,10 @@
         <v>5.4568350315093987E-2</v>
       </c>
       <c r="D462">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E462">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13976,11 +13515,10 @@
         <v>1.7428833991289139E-2</v>
       </c>
       <c r="D463">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E463">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13995,11 +13533,10 @@
         <v>0.98547530174255371</v>
       </c>
       <c r="D464">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E464">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -14014,11 +13551,10 @@
         <v>1.406397763639688E-2</v>
       </c>
       <c r="D465">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E465">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14033,11 +13569,10 @@
         <v>0.2275644242763519</v>
       </c>
       <c r="D466">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E466">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14052,11 +13587,10 @@
         <v>0.98291093111038208</v>
       </c>
       <c r="D467">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E467">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F467">
@@ -14074,11 +13608,10 @@
         <v>4.190390557050705E-2</v>
       </c>
       <c r="D468">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E468">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14093,11 +13626,10 @@
         <v>1.4036195352673531E-2</v>
       </c>
       <c r="D469">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E469">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14112,11 +13644,10 @@
         <v>1.3621757738292221E-2</v>
       </c>
       <c r="D470">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E470">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14131,11 +13662,10 @@
         <v>0.17105600237846369</v>
       </c>
       <c r="D471">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E471">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14150,11 +13680,10 @@
         <v>1.9478397443890572E-2</v>
       </c>
       <c r="D472">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E472">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14169,11 +13698,10 @@
         <v>1.373339723795652E-2</v>
       </c>
       <c r="D473">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E473">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14188,11 +13716,10 @@
         <v>1.3917042873799799E-2</v>
       </c>
       <c r="D474">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E474">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14207,11 +13734,10 @@
         <v>1.36468643322587E-2</v>
       </c>
       <c r="D475">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E475">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14226,11 +13752,10 @@
         <v>1.8404657021164891E-2</v>
       </c>
       <c r="D476">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E476">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14245,11 +13770,10 @@
         <v>2.8674747794866558E-2</v>
       </c>
       <c r="D477">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E477">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14264,11 +13788,10 @@
         <v>1.382382120937109E-2</v>
       </c>
       <c r="D478">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E478">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14283,11 +13806,10 @@
         <v>1.993188634514809E-2</v>
       </c>
       <c r="D479">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E479">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14302,11 +13824,10 @@
         <v>3.1221870332956311E-2</v>
       </c>
       <c r="D480">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E480">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14321,11 +13842,10 @@
         <v>1.395928021520376E-2</v>
       </c>
       <c r="D481">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E481">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14340,11 +13860,10 @@
         <v>0.92947471141815186</v>
       </c>
       <c r="D482">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E482">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F482">
@@ -14362,11 +13881,10 @@
         <v>1.401813142001629E-2</v>
       </c>
       <c r="D483">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E483">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14381,11 +13899,10 @@
         <v>0.10283681750297551</v>
       </c>
       <c r="D484">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E484">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14400,11 +13917,10 @@
         <v>0.9843565821647644</v>
       </c>
       <c r="D485">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E485">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F485">
@@ -14422,11 +13938,10 @@
         <v>1.4894731342792509E-2</v>
       </c>
       <c r="D486">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E486">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14441,11 +13956,10 @@
         <v>1.422366220504045E-2</v>
       </c>
       <c r="D487">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E487">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14460,11 +13974,10 @@
         <v>1.36243337765336E-2</v>
       </c>
       <c r="D488">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E488">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14479,11 +13992,10 @@
         <v>2.8329202905297279E-2</v>
       </c>
       <c r="D489">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E489">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14498,11 +14010,10 @@
         <v>1.3611196540296079E-2</v>
       </c>
       <c r="D490">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E490">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14517,11 +14028,10 @@
         <v>1.3687225058674811E-2</v>
       </c>
       <c r="D491">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E491">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14536,11 +14046,10 @@
         <v>1.4040167443454271E-2</v>
       </c>
       <c r="D492">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14555,11 +14064,10 @@
         <v>1.4327566139400011E-2</v>
       </c>
       <c r="D493">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14574,11 +14082,10 @@
         <v>4.8642776906490333E-2</v>
       </c>
       <c r="D494">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E494">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14593,11 +14100,10 @@
         <v>1.4210010878741739E-2</v>
       </c>
       <c r="D495">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E495">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14612,11 +14118,10 @@
         <v>1.3708239421248439E-2</v>
       </c>
       <c r="D496">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E496">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14631,11 +14136,10 @@
         <v>1.5186958014965061E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14650,11 +14154,10 @@
         <v>0.98509937524795532</v>
       </c>
       <c r="D498">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E498">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F498">
@@ -14672,11 +14175,10 @@
         <v>2.1419104188680649E-2</v>
       </c>
       <c r="D499">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E499">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14691,11 +14193,10 @@
         <v>0.98509937524795532</v>
       </c>
       <c r="D500">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E500">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F500">
@@ -14713,11 +14214,10 @@
         <v>1.3794241473078729E-2</v>
       </c>
       <c r="D501">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E501">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14732,11 +14232,10 @@
         <v>1.426561828702688E-2</v>
       </c>
       <c r="D502">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E502">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14751,11 +14250,10 @@
         <v>1.5283200889825819E-2</v>
       </c>
       <c r="D503">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E503">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14770,11 +14268,10 @@
         <v>1.376879215240479E-2</v>
       </c>
       <c r="D504">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E504">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14789,11 +14286,10 @@
         <v>1.397859677672386E-2</v>
       </c>
       <c r="D505">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E505">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14808,11 +14304,10 @@
         <v>1.3694377616047859E-2</v>
       </c>
       <c r="D506">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E506">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14827,11 +14322,10 @@
         <v>1.3721467927098271E-2</v>
       </c>
       <c r="D507">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E507">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14846,11 +14340,10 @@
         <v>1.6838667914271351E-2</v>
       </c>
       <c r="D508">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E508">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14865,11 +14358,10 @@
         <v>1.426293607801199E-2</v>
       </c>
       <c r="D509">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E509">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14884,11 +14376,10 @@
         <v>0.2176311910152435</v>
       </c>
       <c r="D510">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E510">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14903,11 +14394,10 @@
         <v>1.357339974492788E-2</v>
       </c>
       <c r="D511">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E511">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14922,11 +14412,10 @@
         <v>0.2174146771430969</v>
       </c>
       <c r="D512">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E512">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14941,11 +14430,10 @@
         <v>1.365357264876366E-2</v>
       </c>
       <c r="D513">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E513">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14960,11 +14448,10 @@
         <v>1.4463423751294609E-2</v>
       </c>
       <c r="D514">
-        <f t="shared" ref="D514:D577" si="14">IF(C514&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D514:D577" si="9">IF(C514&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E514">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14979,11 +14466,10 @@
         <v>1.3721887022256849E-2</v>
       </c>
       <c r="D515">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E515">
-        <f t="shared" ref="E515:E578" si="15">IF(ISBLANK(F515),D515,F515)</f>
         <v>0</v>
       </c>
     </row>
@@ -14998,11 +14484,10 @@
         <v>1.3624601997435089E-2</v>
       </c>
       <c r="D516">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E516">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15017,11 +14502,10 @@
         <v>2.1812638267874721E-2</v>
       </c>
       <c r="D517">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E517">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15036,11 +14520,10 @@
         <v>1.3678080402314659E-2</v>
       </c>
       <c r="D518">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E518">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15055,11 +14538,10 @@
         <v>1.3737655244767669E-2</v>
       </c>
       <c r="D519">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E519">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15074,11 +14556,10 @@
         <v>9.9536202847957611E-2</v>
       </c>
       <c r="D520">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E520">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15093,11 +14574,10 @@
         <v>0.98523604869842529</v>
       </c>
       <c r="D521">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E521">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F521">
@@ -15115,11 +14595,10 @@
         <v>1.367998495697975E-2</v>
       </c>
       <c r="D522">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E522">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15134,11 +14613,10 @@
         <v>1.379419025033712E-2</v>
       </c>
       <c r="D523">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E523">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15153,11 +14631,10 @@
         <v>1.360533479601145E-2</v>
       </c>
       <c r="D524">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E524">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15172,11 +14649,10 @@
         <v>1.3582960702478891E-2</v>
       </c>
       <c r="D525">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E525">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15191,11 +14667,10 @@
         <v>1.3751675374805931E-2</v>
       </c>
       <c r="D526">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E526">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15210,11 +14685,10 @@
         <v>1.35868526995182E-2</v>
       </c>
       <c r="D527">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E527">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15229,11 +14703,10 @@
         <v>1.3626762665808201E-2</v>
       </c>
       <c r="D528">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E528">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15248,11 +14721,10 @@
         <v>1.3775947503745559E-2</v>
       </c>
       <c r="D529">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E529">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15267,11 +14739,10 @@
         <v>0.98509174585342407</v>
       </c>
       <c r="D530">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E530">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F530">
@@ -15289,11 +14760,10 @@
         <v>0.98545479774475098</v>
       </c>
       <c r="D531">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E531">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F531">
@@ -15311,11 +14781,10 @@
         <v>1.5249546617269519E-2</v>
       </c>
       <c r="D532">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E532">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15330,11 +14799,10 @@
         <v>0.90341204404830933</v>
       </c>
       <c r="D533">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E533">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F533">
@@ -15352,11 +14820,10 @@
         <v>1.382334623485804E-2</v>
       </c>
       <c r="D534">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E534">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15371,11 +14838,10 @@
         <v>1.4694171957671641E-2</v>
       </c>
       <c r="D535">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E535">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15390,11 +14856,10 @@
         <v>0.21743059158325201</v>
       </c>
       <c r="D536">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E536">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15409,11 +14874,10 @@
         <v>1.388048473745584E-2</v>
       </c>
       <c r="D537">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E537">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15428,11 +14892,10 @@
         <v>1.3797713443636891E-2</v>
       </c>
       <c r="D538">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E538">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15447,11 +14910,10 @@
         <v>1.470297761261463E-2</v>
       </c>
       <c r="D539">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E539">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15466,11 +14928,10 @@
         <v>1.3988576829433439E-2</v>
       </c>
       <c r="D540">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E540">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15485,11 +14946,10 @@
         <v>1.3793289661407471E-2</v>
       </c>
       <c r="D541">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E541">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15504,11 +14964,10 @@
         <v>1.459768787026405E-2</v>
       </c>
       <c r="D542">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E542">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15523,11 +14982,10 @@
         <v>1.6623543575406071E-2</v>
       </c>
       <c r="D543">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E543">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15542,11 +15000,10 @@
         <v>1.370246987789869E-2</v>
       </c>
       <c r="D544">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E544">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15561,11 +15018,10 @@
         <v>1.3878291472792631E-2</v>
       </c>
       <c r="D545">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E545">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15580,11 +15036,10 @@
         <v>1.6903793439269069E-2</v>
       </c>
       <c r="D546">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E546">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15599,11 +15054,10 @@
         <v>1.381074171513319E-2</v>
       </c>
       <c r="D547">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E547">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15618,11 +15072,10 @@
         <v>1.3784041628241541E-2</v>
       </c>
       <c r="D548">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E548">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15637,11 +15090,10 @@
         <v>1.3733625411987299E-2</v>
       </c>
       <c r="D549">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E549">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15656,11 +15108,10 @@
         <v>1.368824858218431E-2</v>
       </c>
       <c r="D550">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E550">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15675,11 +15126,10 @@
         <v>1.363663002848625E-2</v>
       </c>
       <c r="D551">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E551">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15694,11 +15144,10 @@
         <v>1.370147150009871E-2</v>
       </c>
       <c r="D552">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E552">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15713,11 +15162,10 @@
         <v>1.377550046890974E-2</v>
       </c>
       <c r="D553">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E553">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15732,11 +15180,10 @@
         <v>3.6301691085100167E-2</v>
       </c>
       <c r="D554">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E554">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15751,11 +15198,10 @@
         <v>1.5637079253792759E-2</v>
       </c>
       <c r="D555">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E555">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15770,11 +15216,10 @@
         <v>1.3706762343645099E-2</v>
       </c>
       <c r="D556">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E556">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15789,11 +15234,10 @@
         <v>1.3770235702395439E-2</v>
       </c>
       <c r="D557">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E557">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15808,11 +15252,10 @@
         <v>1.4702293090522289E-2</v>
       </c>
       <c r="D558">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E558">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15827,11 +15270,10 @@
         <v>0.21745924651622769</v>
       </c>
       <c r="D559">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E559">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15846,11 +15288,10 @@
         <v>1.381786819547415E-2</v>
       </c>
       <c r="D560">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E560">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15865,11 +15306,10 @@
         <v>2.5946581736207008E-2</v>
       </c>
       <c r="D561">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E561">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15884,11 +15324,10 @@
         <v>4.2940489947795868E-2</v>
       </c>
       <c r="D562">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E562">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15903,11 +15342,10 @@
         <v>1.4374462887644769E-2</v>
       </c>
       <c r="D563">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E563">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15922,11 +15360,10 @@
         <v>1.424759160727262E-2</v>
       </c>
       <c r="D564">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E564">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15941,11 +15378,10 @@
         <v>1.392178703099489E-2</v>
       </c>
       <c r="D565">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E565">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15960,11 +15396,10 @@
         <v>1.450506597757339E-2</v>
       </c>
       <c r="D566">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E566">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15979,11 +15414,10 @@
         <v>1.3575431890785691E-2</v>
       </c>
       <c r="D567">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E567">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15998,11 +15432,10 @@
         <v>1.3969942927360529E-2</v>
       </c>
       <c r="D568">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E568">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16017,11 +15450,10 @@
         <v>2.9252748936414719E-2</v>
       </c>
       <c r="D569">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E569">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16036,11 +15468,10 @@
         <v>1.390459481626749E-2</v>
       </c>
       <c r="D570">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E570">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16055,11 +15486,10 @@
         <v>1.3843785040080551E-2</v>
       </c>
       <c r="D571">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E571">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16074,11 +15504,10 @@
         <v>1.8418885767459869E-2</v>
       </c>
       <c r="D572">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E572">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16093,11 +15522,10 @@
         <v>0.98112273216247559</v>
       </c>
       <c r="D573">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E573">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F573">
@@ -16115,11 +15543,10 @@
         <v>1.4377693645656111E-2</v>
       </c>
       <c r="D574">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E574">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16134,11 +15561,10 @@
         <v>0.2174609899520874</v>
       </c>
       <c r="D575">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E575">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16153,11 +15579,10 @@
         <v>1.382478978484869E-2</v>
       </c>
       <c r="D576">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E576">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16172,11 +15597,10 @@
         <v>1.4316343702375891E-2</v>
       </c>
       <c r="D577">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E577">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16191,11 +15615,10 @@
         <v>0.2175193578004837</v>
       </c>
       <c r="D578">
-        <f t="shared" ref="D578:D641" si="16">IF(C578&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D578:D641" si="10">IF(C578&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E578">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16210,11 +15633,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D579">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E579">
-        <f t="shared" ref="E579:E642" si="17">IF(ISBLANK(F579),D579,F579)</f>
         <v>0</v>
       </c>
     </row>
@@ -16229,11 +15651,10 @@
         <v>1.7270959913730621E-2</v>
       </c>
       <c r="D580">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E580">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16248,11 +15669,10 @@
         <v>1.4895696192979809E-2</v>
       </c>
       <c r="D581">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E581">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16267,11 +15687,10 @@
         <v>1.372284255921841E-2</v>
       </c>
       <c r="D582">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E582">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16286,11 +15705,10 @@
         <v>3.6293350160121918E-2</v>
       </c>
       <c r="D583">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E583">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16305,11 +15723,10 @@
         <v>1.7063623294234279E-2</v>
       </c>
       <c r="D584">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E584">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16324,11 +15741,10 @@
         <v>0.14785914123058319</v>
       </c>
       <c r="D585">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E585">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16343,11 +15759,10 @@
         <v>0.98534077405929565</v>
       </c>
       <c r="D586">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E586">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F586">
@@ -16365,11 +15780,10 @@
         <v>1.418566331267357E-2</v>
       </c>
       <c r="D587">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E587">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16384,11 +15798,10 @@
         <v>1.3655088841915131E-2</v>
       </c>
       <c r="D588">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E588">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16403,11 +15816,10 @@
         <v>4.0948454290628433E-2</v>
       </c>
       <c r="D589">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E589">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16422,11 +15834,10 @@
         <v>4.1255850344896323E-2</v>
       </c>
       <c r="D590">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E590">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16441,11 +15852,10 @@
         <v>1.414017099887133E-2</v>
       </c>
       <c r="D591">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E591">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16460,11 +15870,10 @@
         <v>1.397532317787409E-2</v>
       </c>
       <c r="D592">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E592">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16479,11 +15888,10 @@
         <v>1.7715973779559139E-2</v>
       </c>
       <c r="D593">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E593">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16498,11 +15906,10 @@
         <v>1.4070418663322931E-2</v>
       </c>
       <c r="D594">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E594">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16517,11 +15924,10 @@
         <v>0.1122009977698326</v>
       </c>
       <c r="D595">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E595">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16536,11 +15942,10 @@
         <v>0.98514360189437866</v>
       </c>
       <c r="D596">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E596">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F596">
@@ -16558,11 +15963,10 @@
         <v>1.4163920655846599E-2</v>
       </c>
       <c r="D597">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E597">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16577,11 +15981,10 @@
         <v>1.3767171651124951E-2</v>
       </c>
       <c r="D598">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E598">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16596,11 +15999,10 @@
         <v>1.437490247189999E-2</v>
       </c>
       <c r="D599">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E599">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16615,11 +16017,10 @@
         <v>5.5088475346565247E-2</v>
       </c>
       <c r="D600">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E600">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16634,11 +16035,10 @@
         <v>0.1008962020277977</v>
       </c>
       <c r="D601">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E601">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16653,11 +16053,10 @@
         <v>1.3685564510524269E-2</v>
       </c>
       <c r="D602">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E602">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16672,11 +16071,10 @@
         <v>0.98534190654754639</v>
       </c>
       <c r="D603">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E603">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -16691,11 +16089,10 @@
         <v>1.392553839832544E-2</v>
       </c>
       <c r="D604">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E604">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16710,11 +16107,10 @@
         <v>5.8562718331813812E-2</v>
       </c>
       <c r="D605">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E605">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16729,11 +16125,10 @@
         <v>1.3815450482070449E-2</v>
       </c>
       <c r="D606">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E606">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16748,11 +16143,10 @@
         <v>1.388302352279425E-2</v>
       </c>
       <c r="D607">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E607">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16767,11 +16161,10 @@
         <v>1.3846044428646559E-2</v>
       </c>
       <c r="D608">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E608">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16786,11 +16179,10 @@
         <v>1.3576573692262169E-2</v>
       </c>
       <c r="D609">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E609">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16805,11 +16197,10 @@
         <v>1.403033547103405E-2</v>
       </c>
       <c r="D610">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E610">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16824,11 +16215,10 @@
         <v>1.415266003459692E-2</v>
       </c>
       <c r="D611">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E611">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16843,11 +16233,10 @@
         <v>1.3689387589693069E-2</v>
       </c>
       <c r="D612">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E612">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16862,11 +16251,10 @@
         <v>1.3994826003909109E-2</v>
       </c>
       <c r="D613">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E613">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16881,11 +16269,10 @@
         <v>7.0973522961139679E-2</v>
       </c>
       <c r="D614">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E614">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16900,11 +16287,10 @@
         <v>1.367786061018705E-2</v>
       </c>
       <c r="D615">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E615">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16919,11 +16305,10 @@
         <v>1.610958389937878E-2</v>
       </c>
       <c r="D616">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E616">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16938,11 +16323,10 @@
         <v>1.4158022589981559E-2</v>
       </c>
       <c r="D617">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E617">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16957,11 +16341,10 @@
         <v>1.391235832124949E-2</v>
       </c>
       <c r="D618">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E618">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16976,11 +16359,10 @@
         <v>1.4076710678637029E-2</v>
       </c>
       <c r="D619">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E619">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16995,11 +16377,10 @@
         <v>0.98541939258575439</v>
       </c>
       <c r="D620">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E620">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F620">
@@ -17017,11 +16398,10 @@
         <v>0.77732151746749878</v>
       </c>
       <c r="D621">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E621">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F621">
@@ -17039,11 +16419,10 @@
         <v>1.563369482755661E-2</v>
       </c>
       <c r="D622">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E622">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17058,11 +16437,10 @@
         <v>0.98547017574310303</v>
       </c>
       <c r="D623">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E623">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -17077,11 +16455,10 @@
         <v>3.4362930804491043E-2</v>
       </c>
       <c r="D624">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E624">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17096,11 +16473,10 @@
         <v>1.6850553452968601E-2</v>
       </c>
       <c r="D625">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E625">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17115,11 +16491,10 @@
         <v>0.84142839908599854</v>
       </c>
       <c r="D626">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E626">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -17134,11 +16509,10 @@
         <v>0.9853556752204895</v>
       </c>
       <c r="D627">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E627">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -17153,11 +16527,10 @@
         <v>0.84153544902801514</v>
       </c>
       <c r="D628">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E628">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -17172,11 +16545,10 @@
         <v>1.473516132682562E-2</v>
       </c>
       <c r="D629">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E629">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17191,11 +16563,10 @@
         <v>2.5609541684389111E-2</v>
       </c>
       <c r="D630">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E630">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17210,11 +16581,10 @@
         <v>1.4043343253433699E-2</v>
       </c>
       <c r="D631">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E631">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17229,11 +16599,10 @@
         <v>3.089464828372002E-2</v>
       </c>
       <c r="D632">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E632">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17248,11 +16617,10 @@
         <v>0.98546439409255981</v>
       </c>
       <c r="D633">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E633">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -17267,11 +16635,10 @@
         <v>1.442113891243935E-2</v>
       </c>
       <c r="D634">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E634">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17286,11 +16653,10 @@
         <v>1.37720163911581E-2</v>
       </c>
       <c r="D635">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E635">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17305,11 +16671,10 @@
         <v>1.3813178054988381E-2</v>
       </c>
       <c r="D636">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E636">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17324,11 +16689,10 @@
         <v>1.3897065073251721E-2</v>
       </c>
       <c r="D637">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E637">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17343,11 +16707,10 @@
         <v>1.4530600048601631E-2</v>
       </c>
       <c r="D638">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E638">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17362,11 +16725,10 @@
         <v>1.4214920811355111E-2</v>
       </c>
       <c r="D639">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E639">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17381,11 +16743,10 @@
         <v>1.4206249266862869E-2</v>
       </c>
       <c r="D640">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E640">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17400,11 +16761,10 @@
         <v>1.4546040445566181E-2</v>
       </c>
       <c r="D641">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E641">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17419,11 +16779,10 @@
         <v>1.599505357444286E-2</v>
       </c>
       <c r="D642">
-        <f t="shared" ref="D642:D705" si="18">IF(C642&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D642:D705" si="11">IF(C642&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E642">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -17438,11 +16797,10 @@
         <v>2.5849997997283939E-2</v>
       </c>
       <c r="D643">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E643">
-        <f t="shared" ref="E643:E706" si="19">IF(ISBLANK(F643),D643,F643)</f>
         <v>0</v>
       </c>
     </row>
@@ -17457,11 +16815,10 @@
         <v>0.98433876037597656</v>
       </c>
       <c r="D644">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E644">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -17476,11 +16833,10 @@
         <v>1.392194442451E-2</v>
       </c>
       <c r="D645">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E645">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17495,11 +16851,10 @@
         <v>5.2489340305328369E-2</v>
       </c>
       <c r="D646">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E646">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17514,11 +16869,10 @@
         <v>0.9849211573600769</v>
       </c>
       <c r="D647">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E647">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -17533,11 +16887,10 @@
         <v>2.5849997997283939E-2</v>
       </c>
       <c r="D648">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E648">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17552,11 +16905,10 @@
         <v>3.7553127855062478E-2</v>
       </c>
       <c r="D649">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E649">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17571,11 +16923,10 @@
         <v>2.567038498818874E-2</v>
       </c>
       <c r="D650">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E650">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17590,11 +16941,10 @@
         <v>1.7545053735375401E-2</v>
       </c>
       <c r="D651">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E651">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17609,11 +16959,10 @@
         <v>1.364939380437136E-2</v>
       </c>
       <c r="D652">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E652">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17628,11 +16977,10 @@
         <v>0.98536169528961182</v>
       </c>
       <c r="D653">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E653">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F653">
@@ -17650,11 +16998,10 @@
         <v>1.362481527030468E-2</v>
       </c>
       <c r="D654">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E654">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17669,11 +17016,10 @@
         <v>4.5202501118183143E-2</v>
       </c>
       <c r="D655">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E655">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17688,11 +17034,10 @@
         <v>1.3804430142045019E-2</v>
       </c>
       <c r="D656">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E656">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17707,11 +17052,10 @@
         <v>1.492590550333261E-2</v>
       </c>
       <c r="D657">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E657">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17726,11 +17070,10 @@
         <v>1.6385946422815319E-2</v>
       </c>
       <c r="D658">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E658">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17745,11 +17088,10 @@
         <v>0.98548591136932373</v>
       </c>
       <c r="D659">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E659">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -17764,11 +17106,10 @@
         <v>2.7076322585344311E-2</v>
       </c>
       <c r="D660">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E660">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17783,11 +17124,10 @@
         <v>0.98291093111038208</v>
       </c>
       <c r="D661">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E661">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F661">
@@ -17805,11 +17145,10 @@
         <v>1.4972078613936899E-2</v>
       </c>
       <c r="D662">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E662">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17824,11 +17163,10 @@
         <v>1.412972621619701E-2</v>
       </c>
       <c r="D663">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E663">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17843,11 +17181,10 @@
         <v>0.98547399044036865</v>
       </c>
       <c r="D664">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E664">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -17862,11 +17199,10 @@
         <v>1.436550822108984E-2</v>
       </c>
       <c r="D665">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E665">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17881,11 +17217,10 @@
         <v>4.2181737720966339E-2</v>
       </c>
       <c r="D666">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E666">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17900,11 +17235,10 @@
         <v>1.461145374923944E-2</v>
       </c>
       <c r="D667">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E667">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17919,11 +17253,10 @@
         <v>2.4184998124837879E-2</v>
       </c>
       <c r="D668">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E668">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17938,11 +17271,10 @@
         <v>0.98547548055648804</v>
       </c>
       <c r="D669">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E669">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F669">
@@ -17960,11 +17292,10 @@
         <v>0.56970864534378052</v>
       </c>
       <c r="D670">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E670">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F670">
@@ -17982,11 +17313,10 @@
         <v>7.5815588235855103E-2</v>
       </c>
       <c r="D671">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E671">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18001,11 +17331,10 @@
         <v>2.6775108650326729E-2</v>
       </c>
       <c r="D672">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E672">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18020,11 +17349,10 @@
         <v>1.4441335573792459E-2</v>
       </c>
       <c r="D673">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E673">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18039,11 +17367,10 @@
         <v>0.98446923494338989</v>
       </c>
       <c r="D674">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E674">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -18058,11 +17385,10 @@
         <v>1.398815587162971E-2</v>
       </c>
       <c r="D675">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E675">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18077,11 +17403,10 @@
         <v>0.98542791604995728</v>
       </c>
       <c r="D676">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E676">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -18096,11 +17421,10 @@
         <v>1.4173471368849279E-2</v>
       </c>
       <c r="D677">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E677">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18115,11 +17439,10 @@
         <v>1.402324624359608E-2</v>
       </c>
       <c r="D678">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E678">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18134,11 +17457,10 @@
         <v>0.21763803064823151</v>
       </c>
       <c r="D679">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E679">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18153,11 +17475,10 @@
         <v>0.98548156023025513</v>
       </c>
       <c r="D680">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E680">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -18172,11 +17493,10 @@
         <v>0.98544114828109741</v>
       </c>
       <c r="D681">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E681">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -18191,11 +17511,10 @@
         <v>0.98547202348709106</v>
       </c>
       <c r="D682">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E682">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -18210,11 +17529,10 @@
         <v>2.22965944558382E-2</v>
       </c>
       <c r="D683">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E683">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18229,11 +17547,10 @@
         <v>0.9852411150932312</v>
       </c>
       <c r="D684">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E684">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F684">
@@ -18251,11 +17568,10 @@
         <v>1.9413333386182789E-2</v>
       </c>
       <c r="D685">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E685">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18270,11 +17586,10 @@
         <v>1.4043924398720259E-2</v>
       </c>
       <c r="D686">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E686">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18289,11 +17604,10 @@
         <v>1.6123399138450619E-2</v>
       </c>
       <c r="D687">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E687">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18308,11 +17622,10 @@
         <v>1.4414140023291109E-2</v>
       </c>
       <c r="D688">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E688">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18327,11 +17640,10 @@
         <v>0.9850313663482666</v>
       </c>
       <c r="D689">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E689">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F689">
@@ -18349,11 +17661,10 @@
         <v>1.3996635563671591E-2</v>
       </c>
       <c r="D690">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E690">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18368,11 +17679,10 @@
         <v>0.98239421844482422</v>
       </c>
       <c r="D691">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E691">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F691">
@@ -18390,11 +17700,10 @@
         <v>1.396930031478405E-2</v>
       </c>
       <c r="D692">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E692">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18409,11 +17718,10 @@
         <v>1.3870208524167539E-2</v>
       </c>
       <c r="D693">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E693">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18428,11 +17736,10 @@
         <v>0.98452222347259521</v>
       </c>
       <c r="D694">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E694">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F694">
@@ -18450,11 +17757,10 @@
         <v>0.98520469665527344</v>
       </c>
       <c r="D695">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E695">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F695">
@@ -18472,11 +17778,10 @@
         <v>2.910517901182175E-2</v>
       </c>
       <c r="D696">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E696">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18491,11 +17796,10 @@
         <v>4.1462764143943787E-2</v>
       </c>
       <c r="D697">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E697">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18510,11 +17814,10 @@
         <v>1.660455763339996E-2</v>
       </c>
       <c r="D698">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E698">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18529,11 +17832,10 @@
         <v>1.368934940546751E-2</v>
       </c>
       <c r="D699">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E699">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18548,11 +17850,10 @@
         <v>1.374175120145082E-2</v>
       </c>
       <c r="D700">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E700">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18567,11 +17868,10 @@
         <v>1.374336052685976E-2</v>
       </c>
       <c r="D701">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E701">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18586,11 +17886,10 @@
         <v>0.66071778535842896</v>
       </c>
       <c r="D702">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E702">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F702">
@@ -18608,11 +17907,10 @@
         <v>0.98547804355621338</v>
       </c>
       <c r="D703">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E703">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -18627,11 +17925,10 @@
         <v>0.98546350002288818</v>
       </c>
       <c r="D704">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E704">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -18646,11 +17943,10 @@
         <v>1.419796422123909E-2</v>
       </c>
       <c r="D705">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E705">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18665,11 +17961,10 @@
         <v>2.4860350415110592E-2</v>
       </c>
       <c r="D706">
-        <f t="shared" ref="D706:D761" si="20">IF(C706&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D706:D761" si="12">IF(C706&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E706">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -18684,11 +17979,10 @@
         <v>1.374468579888344E-2</v>
       </c>
       <c r="D707">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E707">
-        <f t="shared" ref="E707:E770" si="21">IF(ISBLANK(F707),D707,F707)</f>
         <v>0</v>
       </c>
     </row>
@@ -18703,11 +17997,10 @@
         <v>1.3929783366620541E-2</v>
       </c>
       <c r="D708">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E708">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18722,11 +18015,10 @@
         <v>1.6287244856357571E-2</v>
       </c>
       <c r="D709">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E709">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18741,11 +18033,10 @@
         <v>1.3723293319344521E-2</v>
       </c>
       <c r="D710">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E710">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18760,11 +18051,10 @@
         <v>0.98543095588684082</v>
       </c>
       <c r="D711">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E711">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -18779,11 +18069,10 @@
         <v>1.6221830621361729E-2</v>
       </c>
       <c r="D712">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E712">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18798,11 +18087,10 @@
         <v>0.98546147346496582</v>
       </c>
       <c r="D713">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E713">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F713">
@@ -18820,11 +18108,10 @@
         <v>1.3897399418056009E-2</v>
       </c>
       <c r="D714">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E714">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18839,11 +18126,10 @@
         <v>1.385476533323526E-2</v>
       </c>
       <c r="D715">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E715">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18858,11 +18144,10 @@
         <v>1.3971190899610519E-2</v>
       </c>
       <c r="D716">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E716">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18877,11 +18162,10 @@
         <v>1.5338613651692871E-2</v>
       </c>
       <c r="D717">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E717">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18896,11 +18180,10 @@
         <v>1.3791343197226519E-2</v>
       </c>
       <c r="D718">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E718">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18915,11 +18198,10 @@
         <v>3.8903139531612403E-2</v>
       </c>
       <c r="D719">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E719">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18934,11 +18216,10 @@
         <v>1.5228814445436001E-2</v>
       </c>
       <c r="D720">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E720">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18953,11 +18234,10 @@
         <v>0.98547840118408203</v>
       </c>
       <c r="D721">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E721">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -18972,11 +18252,10 @@
         <v>0.98547738790512085</v>
       </c>
       <c r="D722">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E722">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F722">
@@ -18994,11 +18273,10 @@
         <v>0.98547738790512085</v>
       </c>
       <c r="D723">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E723">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -19013,11 +18291,10 @@
         <v>0.98547887802124023</v>
       </c>
       <c r="D724">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E724">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -19032,11 +18309,10 @@
         <v>0.9854743480682373</v>
       </c>
       <c r="D725">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E725">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -19051,11 +18327,10 @@
         <v>0.79250925779342651</v>
       </c>
       <c r="D726">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E726">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F726">
@@ -19073,11 +18348,10 @@
         <v>0.90119200944900513</v>
       </c>
       <c r="D727">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E727">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F727">
@@ -19095,11 +18369,10 @@
         <v>0.90316486358642578</v>
       </c>
       <c r="D728">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E728">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F728">
@@ -19117,11 +18390,10 @@
         <v>1.385073363780975E-2</v>
       </c>
       <c r="D729">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E729">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19136,11 +18408,10 @@
         <v>1.4993458054959771E-2</v>
       </c>
       <c r="D730">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E730">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19155,11 +18426,10 @@
         <v>1.5082634054124361E-2</v>
       </c>
       <c r="D731">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E731">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19174,11 +18444,10 @@
         <v>1.403015851974487E-2</v>
       </c>
       <c r="D732">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E732">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19193,11 +18462,10 @@
         <v>1.413349807262421E-2</v>
       </c>
       <c r="D733">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E733">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19212,11 +18480,10 @@
         <v>0.98546719551086426</v>
       </c>
       <c r="D734">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E734">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -19231,11 +18498,10 @@
         <v>1.393455732613802E-2</v>
       </c>
       <c r="D735">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E735">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19250,11 +18516,10 @@
         <v>1.3819257728755471E-2</v>
       </c>
       <c r="D736">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E736">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19269,11 +18534,10 @@
         <v>0.9819035530090332</v>
       </c>
       <c r="D737">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E737">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F737">
@@ -19291,11 +18555,10 @@
         <v>0.98215216398239136</v>
       </c>
       <c r="D738">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E738">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -19310,11 +18573,10 @@
         <v>0.98546880483627319</v>
       </c>
       <c r="D739">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E739">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -19329,11 +18591,10 @@
         <v>0.98464590311050415</v>
       </c>
       <c r="D740">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E740">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F740">
@@ -19351,11 +18612,10 @@
         <v>1.3704138807952401E-2</v>
       </c>
       <c r="D741">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E741">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19370,11 +18630,10 @@
         <v>1.6375536099076271E-2</v>
       </c>
       <c r="D742">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E742">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19389,11 +18648,10 @@
         <v>1.395130157470703E-2</v>
       </c>
       <c r="D743">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E743">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19408,11 +18666,10 @@
         <v>3.4065566956996918E-2</v>
       </c>
       <c r="D744">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E744">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19427,11 +18684,10 @@
         <v>0.9352571964263916</v>
       </c>
       <c r="D745">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E745">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F745">
@@ -19449,11 +18705,10 @@
         <v>3.8894191384315491E-2</v>
       </c>
       <c r="D746">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E746">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19468,11 +18723,10 @@
         <v>2.1984456107020382E-2</v>
       </c>
       <c r="D747">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E747">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19487,11 +18741,10 @@
         <v>0.98546159267425537</v>
       </c>
       <c r="D748">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E748">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -19506,11 +18759,10 @@
         <v>1.4091159217059611E-2</v>
       </c>
       <c r="D749">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E749">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19525,11 +18777,10 @@
         <v>0.98547691106796265</v>
       </c>
       <c r="D750">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E750">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -19544,11 +18795,10 @@
         <v>0.98484009504318237</v>
       </c>
       <c r="D751">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E751">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -19563,11 +18813,10 @@
         <v>0.98546844720840454</v>
       </c>
       <c r="D752">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E752">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -19582,11 +18831,10 @@
         <v>1.3602724298834801E-2</v>
       </c>
       <c r="D753">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E753">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19601,11 +18849,10 @@
         <v>2.942483872175217E-2</v>
       </c>
       <c r="D754">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E754">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19620,11 +18867,10 @@
         <v>1.368651632219553E-2</v>
       </c>
       <c r="D755">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E755">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19639,11 +18885,10 @@
         <v>1.4621961861848829E-2</v>
       </c>
       <c r="D756">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E756">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19658,11 +18903,10 @@
         <v>1.587785966694355E-2</v>
       </c>
       <c r="D757">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E757">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19677,11 +18921,10 @@
         <v>1.5006766654551029E-2</v>
       </c>
       <c r="D758">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E758">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19696,11 +18939,10 @@
         <v>3.0031004920601841E-2</v>
       </c>
       <c r="D759">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E759">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19715,11 +18957,10 @@
         <v>1.521897781640291E-2</v>
       </c>
       <c r="D760">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E760">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19734,11 +18975,10 @@
         <v>0.21764817833900449</v>
       </c>
       <c r="D761">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E761">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19756,7 +18996,6 @@
         <v>1</v>
       </c>
       <c r="E762">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F762">
@@ -19774,11 +19013,10 @@
         <v>1.4134063385427E-2</v>
       </c>
       <c r="D763">
-        <f t="shared" ref="D763:D774" si="22">IF(C763&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D763:D774" si="13">IF(C763&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E763">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19793,11 +19031,10 @@
         <v>1.405287999659777E-2</v>
       </c>
       <c r="D764">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E764">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19812,11 +19049,10 @@
         <v>1.374912075698376E-2</v>
       </c>
       <c r="D765">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E765">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19831,11 +19067,10 @@
         <v>0.13081023097038269</v>
       </c>
       <c r="D766">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E766">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19850,11 +19085,10 @@
         <v>1.411884929984808E-2</v>
       </c>
       <c r="D767">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E767">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19869,11 +19103,10 @@
         <v>3.8048312067985528E-2</v>
       </c>
       <c r="D768">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E768">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19888,11 +19121,10 @@
         <v>0.98531508445739746</v>
       </c>
       <c r="D769">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E769">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F769">
@@ -19910,11 +19142,10 @@
         <v>2.894528582692146E-2</v>
       </c>
       <c r="D770">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E770">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -19929,11 +19160,10 @@
         <v>1.377313118427992E-2</v>
       </c>
       <c r="D771">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E771">
-        <f t="shared" ref="E771:E774" si="23">IF(ISBLANK(F771),D771,F771)</f>
         <v>0</v>
       </c>
     </row>
@@ -19948,11 +19178,10 @@
         <v>1.385056413710117E-2</v>
       </c>
       <c r="D772">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E772">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19967,11 +19196,10 @@
         <v>1.376042794436216E-2</v>
       </c>
       <c r="D773">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E773">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19986,11 +19214,10 @@
         <v>1.389996614307165E-2</v>
       </c>
       <c r="D774">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E774">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
